--- a/data/hotels_by_city/Houston/Houston_shard_575.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_575.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="459">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56707-d601457-Reviews-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Sleep-Inn-Suites-Stafford-Sugarland.h1407167.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1263 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r548508715-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>56707</t>
+  </si>
+  <si>
+    <t>601457</t>
+  </si>
+  <si>
+    <t>548508715</t>
+  </si>
+  <si>
+    <t>12/21/2017</t>
+  </si>
+  <si>
+    <t>Perfectly Adequate Mid-Level Property</t>
+  </si>
+  <si>
+    <t>I initially balked at staying at a Sleep Inn owing to bad past experiences. This one, much to my surprise, was actually very, very nice. Open, airy and very clean. Had a room on the first floor which accounted for the very high ceilings. The bed was very comfortable and the room quiet. Nice pillows, too. Breakfast was OK. My only complaint is the fact that then internet was slow to the point of being barely useable. The location is a bit dicey. Not really on the main drag but off on a side road. Takes some getting to the first time.Will happily stay here again. Recommended</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r540078825-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>540078825</t>
+  </si>
+  <si>
+    <t>11/10/2017</t>
+  </si>
+  <si>
+    <t>Sleep Inn &amp; Suites Stafford-Sugarland required us to pay for 6 nights when we had to leave after 4 nights.</t>
+  </si>
+  <si>
+    <t>We reserved a handicap-accessible room with 2 beds from Expedia. On arrival Sunday we were told that one wasn't available but would be available Monday. On Monday we were told it wasn't available but would be available Tuesday. On Tuesday we were told it wasn't available but would be available Wednesday, or we could get a single King-sized bed in a handicap room, which would not work given my wife's condition.
+My wife is in a wheelchair, and I was barely able to maneuver her to the bathroom from her bed and back. It was extremely hard and dangerous to transfer her to the commode without adequate space. In addition to this, both of our room card-keys were deprogrammed--TWICE!--and I was told that sometimes they were accidentally deprogrammed if exposed to consumer electronics. (Really? TWO different cards with the same rare problem? TWICE?)
+Because this hardship took an enormous toll on my wife's health, we had to cut our trip short, and asked the hotel to adjust our stay from 6 nights to 5. They told me they couldn't, that it was up to Expedia to allow this change. When I called Expedia they said they would "negotiate" the change in our itinerary. The following was Expedia's reply:
+" Dear _____,
+We have advocated your case with the Sleep Inn &amp; Suites Stafford - Sugarland and they approved your early check out however they cannot process a refund, hotel will...We reserved a handicap-accessible room with 2 beds from Expedia. On arrival Sunday we were told that one wasn't available but would be available Monday. On Monday we were told it wasn't available but would be available Tuesday. On Tuesday we were told it wasn't available but would be available Wednesday, or we could get a single King-sized bed in a handicap room, which would not work given my wife's condition.My wife is in a wheelchair, and I was barely able to maneuver her to the bathroom from her bed and back. It was extremely hard and dangerous to transfer her to the commode without adequate space. In addition to this, both of our room card-keys were deprogrammed--TWICE!--and I was told that sometimes they were accidentally deprogrammed if exposed to consumer electronics. (Really? TWO different cards with the same rare problem? TWICE?)Because this hardship took an enormous toll on my wife's health, we had to cut our trip short, and asked the hotel to adjust our stay from 6 nights to 5. They told me they couldn't, that it was up to Expedia to allow this change. When I called Expedia they said they would "negotiate" the change in our itinerary. The following was Expedia's reply:" Dear _____,We have advocated your case with the Sleep Inn &amp; Suites Stafford - Sugarland and they approved your early check out however they cannot process a refund, hotel will still charged you full amount.Thank you for choosing Expedia.SherylExpedia Customer Service Team"How good of them to allow us to leave! Although without our 2-night refund, of course.We finally left Thursday morning, at which time they said they could have made any changes we liked if we had made reservations with them directly instead of using Expedia.Bottom line: I will NEVER again use Expedia, nor Sleep Inn &amp; Suites - Sugarland, and will strongly urge everyone I encounter to avoid these entities like the plague.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>We reserved a handicap-accessible room with 2 beds from Expedia. On arrival Sunday we were told that one wasn't available but would be available Monday. On Monday we were told it wasn't available but would be available Tuesday. On Tuesday we were told it wasn't available but would be available Wednesday, or we could get a single King-sized bed in a handicap room, which would not work given my wife's condition.
+My wife is in a wheelchair, and I was barely able to maneuver her to the bathroom from her bed and back. It was extremely hard and dangerous to transfer her to the commode without adequate space. In addition to this, both of our room card-keys were deprogrammed--TWICE!--and I was told that sometimes they were accidentally deprogrammed if exposed to consumer electronics. (Really? TWO different cards with the same rare problem? TWICE?)
+Because this hardship took an enormous toll on my wife's health, we had to cut our trip short, and asked the hotel to adjust our stay from 6 nights to 5. They told me they couldn't, that it was up to Expedia to allow this change. When I called Expedia they said they would "negotiate" the change in our itinerary. The following was Expedia's reply:
+" Dear _____,
+We have advocated your case with the Sleep Inn &amp; Suites Stafford - Sugarland and they approved your early check out however they cannot process a refund, hotel will...We reserved a handicap-accessible room with 2 beds from Expedia. On arrival Sunday we were told that one wasn't available but would be available Monday. On Monday we were told it wasn't available but would be available Tuesday. On Tuesday we were told it wasn't available but would be available Wednesday, or we could get a single King-sized bed in a handicap room, which would not work given my wife's condition.My wife is in a wheelchair, and I was barely able to maneuver her to the bathroom from her bed and back. It was extremely hard and dangerous to transfer her to the commode without adequate space. In addition to this, both of our room card-keys were deprogrammed--TWICE!--and I was told that sometimes they were accidentally deprogrammed if exposed to consumer electronics. (Really? TWO different cards with the same rare problem? TWICE?)Because this hardship took an enormous toll on my wife's health, we had to cut our trip short, and asked the hotel to adjust our stay from 6 nights to 5. They told me they couldn't, that it was up to Expedia to allow this change. When I called Expedia they said they would "negotiate" the change in our itinerary. The following was Expedia's reply:" Dear _____,We have advocated your case with the Sleep Inn &amp; Suites Stafford - Sugarland and they approved your early check out however they cannot process a refund, hotel will still charged you full amount.Thank you for choosing Expedia.SherylExpedia Customer Service Team"How good of them to allow us to leave! Although without our 2-night refund, of course.We finally left Thursday morning, at which time they said they could have made any changes we liked if we had made reservations with them directly instead of using Expedia.Bottom line: I will NEVER again use Expedia, nor Sleep Inn &amp; Suites - Sugarland, and will strongly urge everyone I encounter to avoid these entities like the plague.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r539979835-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>539979835</t>
+  </si>
+  <si>
+    <t>A good sleep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We’ve stayed here numerous times. A good location for business. The breakfast could improve (no sausage floating in grease) but it’s adequate. Quiet and comfortable rooms however and the staff is helpful. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r520913139-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>520913139</t>
+  </si>
+  <si>
+    <t>09/03/2017</t>
+  </si>
+  <si>
+    <t>Calm During the Storm</t>
+  </si>
+  <si>
+    <t>We left our home in Fort Bend to stay at the Sleep Inn. Amidst the chaos of the storm, Amir and Joe remained calm and courteous as a steady stream of weary and wet people sought shelter from the driving rain. They were short-staffed, so we didn't experience all that they normally have to offer, but what they did offer was just what we needed - a dry room (they never flooded), a comfortable bed, cable so we could track the storm and breakfast (more than adequate for the price/night and situation). And they allow dogs!</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r520544094-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>520544094</t>
+  </si>
+  <si>
+    <t>09/02/2017</t>
+  </si>
+  <si>
+    <t>Slightly Above Average- for the price</t>
+  </si>
+  <si>
+    <t>Room was clean and decent.  Breakfast was on par for the rate... not great- but not horrible.  Plenty of restaurants within walking distance--and many within two miles. Indoor pool did not appear to be well maintained</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r512006961-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>512006961</t>
+  </si>
+  <si>
+    <t>08/12/2017</t>
+  </si>
+  <si>
+    <t>Great Location &amp; safe</t>
+  </si>
+  <si>
+    <t>Stayed for 3 days with family at this hotel. Hotel was clean and well maintained. When Checking in had a bit of trouble, but everything got resolved quick when I mention that I had gotten the hotel thru Groupon. At first, I got a room that smelled, but Joe was very attentive and let me choose my room. Room was big, bed and pillows comfy. I'm not picky, but if you are you may find your bed sheets or pillow case lightly stained. I did , but still slept comfy. I also find something that looked like a roach egg not sure if it was, I threw it in the trash and continued to enjoy my stay. They offer breakfast ( eggs, patties, cereal, waffles, yogurt and pastries) as well as late afternoon snacks ( hot dogs , Chex, chips, sodas and beer). Indoor pool was clean although it looked a bit outdated. Management leaves the door to the pool open and you may find other people (lady and son) NOT staying at the hotel coming in... careful because they do ask for your key card to come in and use the restroom and gym. However, the area was very safe and didn't encounter any problems. The only problem I encounter was some lady I have had trouble in the past following me on my way to the hotel. Not sure how she got my room #  but hotel assured...Stayed for 3 days with family at this hotel. Hotel was clean and well maintained. When Checking in had a bit of trouble, but everything got resolved quick when I mention that I had gotten the hotel thru Groupon. At first, I got a room that smelled, but Joe was very attentive and let me choose my room. Room was big, bed and pillows comfy. I'm not picky, but if you are you may find your bed sheets or pillow case lightly stained. I did , but still slept comfy. I also find something that looked like a roach egg not sure if it was, I threw it in the trash and continued to enjoy my stay. They offer breakfast ( eggs, patties, cereal, waffles, yogurt and pastries) as well as late afternoon snacks ( hot dogs , Chex, chips, sodas and beer). Indoor pool was clean although it looked a bit outdated. Management leaves the door to the pool open and you may find other people (lady and son) NOT staying at the hotel coming in... careful because they do ask for your key card to come in and use the restroom and gym. However, the area was very safe and didn't encounter any problems. The only problem I encounter was some lady I have had trouble in the past following me on my way to the hotel. Not sure how she got my room #  but hotel assured me they didn't give info out and they were kind enough to say that if I needed to call security, they would! Gladly it didn't get to that point. Overall, it was a great place, lots of locations nearby to eat, 20 min away from downtown Houston. 20 min away from Pearland, next to Sugar Land. Would stay again if I ever come back. MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed for 3 days with family at this hotel. Hotel was clean and well maintained. When Checking in had a bit of trouble, but everything got resolved quick when I mention that I had gotten the hotel thru Groupon. At first, I got a room that smelled, but Joe was very attentive and let me choose my room. Room was big, bed and pillows comfy. I'm not picky, but if you are you may find your bed sheets or pillow case lightly stained. I did , but still slept comfy. I also find something that looked like a roach egg not sure if it was, I threw it in the trash and continued to enjoy my stay. They offer breakfast ( eggs, patties, cereal, waffles, yogurt and pastries) as well as late afternoon snacks ( hot dogs , Chex, chips, sodas and beer). Indoor pool was clean although it looked a bit outdated. Management leaves the door to the pool open and you may find other people (lady and son) NOT staying at the hotel coming in... careful because they do ask for your key card to come in and use the restroom and gym. However, the area was very safe and didn't encounter any problems. The only problem I encounter was some lady I have had trouble in the past following me on my way to the hotel. Not sure how she got my room #  but hotel assured...Stayed for 3 days with family at this hotel. Hotel was clean and well maintained. When Checking in had a bit of trouble, but everything got resolved quick when I mention that I had gotten the hotel thru Groupon. At first, I got a room that smelled, but Joe was very attentive and let me choose my room. Room was big, bed and pillows comfy. I'm not picky, but if you are you may find your bed sheets or pillow case lightly stained. I did , but still slept comfy. I also find something that looked like a roach egg not sure if it was, I threw it in the trash and continued to enjoy my stay. They offer breakfast ( eggs, patties, cereal, waffles, yogurt and pastries) as well as late afternoon snacks ( hot dogs , Chex, chips, sodas and beer). Indoor pool was clean although it looked a bit outdated. Management leaves the door to the pool open and you may find other people (lady and son) NOT staying at the hotel coming in... careful because they do ask for your key card to come in and use the restroom and gym. However, the area was very safe and didn't encounter any problems. The only problem I encounter was some lady I have had trouble in the past following me on my way to the hotel. Not sure how she got my room #  but hotel assured me they didn't give info out and they were kind enough to say that if I needed to call security, they would! Gladly it didn't get to that point. Overall, it was a great place, lots of locations nearby to eat, 20 min away from downtown Houston. 20 min away from Pearland, next to Sugar Land. Would stay again if I ever come back. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r499220119-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>499220119</t>
+  </si>
+  <si>
+    <t>07/06/2017</t>
+  </si>
+  <si>
+    <t>Family VACATION</t>
+  </si>
+  <si>
+    <t>We arrived early, they checked us in anyway, no charge, the booking was supposed to use points but was wrong, manager upgraded us for free to bigger room. Very helpful and considerate. He made sure we had a handicap accessible room for my wife. I would stay here again in a minute.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r490550238-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>490550238</t>
+  </si>
+  <si>
+    <t>06/05/2017</t>
+  </si>
+  <si>
+    <t>Good hotel but poor service!!</t>
+  </si>
+  <si>
+    <t>I had checked in middle of April and everything ok except for iron missing in the closet but that was not a big deal . The  most mortifying experience I had was during checking out where I believe Mr Jose the manager was attending me and there were also a bunch of guys chatting casually with him and since I was getting late for my flight to Colombia for a business meeting ,  I had asked him to hurry me up but instead he was still busy talking and not in English but panish ignoring me ( I fully understand this language .) I felt very insulted and shocked knowing that  he was a manager who was talking about some female using derrogative terms . I just wanted to get taken care of and get out of this hotel. Think if the manager is all this , what will happen to customers like me , so I decided I will notstay here again!!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>I had checked in middle of April and everything ok except for iron missing in the closet but that was not a big deal . The  most mortifying experience I had was during checking out where I believe Mr Jose the manager was attending me and there were also a bunch of guys chatting casually with him and since I was getting late for my flight to Colombia for a business meeting ,  I had asked him to hurry me up but instead he was still busy talking and not in English but panish ignoring me ( I fully understand this language .) I felt very insulted and shocked knowing that  he was a manager who was talking about some female using derrogative terms . I just wanted to get taken care of and get out of this hotel. Think if the manager is all this , what will happen to customers like me , so I decided I will notstay here again!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r489842199-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>489842199</t>
+  </si>
+  <si>
+    <t>06/02/2017</t>
+  </si>
+  <si>
+    <t>First time at Sleep inn &amp; Suites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The staff is great, and the hotel is very nice! We got to the hotel pretty early, but They allowed me to check in early also which was great and there was no fee! The pool and gym was very nice. And Room was very clean. </t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r461732298-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>461732298</t>
+  </si>
+  <si>
+    <t>02/21/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friends wedding </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good location if you need to be in the Sugarland/Stafford area. We got a great rate for the weekend. Hotel was clean. Staff was friendly. The only complaint I had was having to get my room key reprogrammed each day, apparently it was done wrong twice. Other than that very good overall. </t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r460274264-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>460274264</t>
+  </si>
+  <si>
+    <t>02/15/2017</t>
+  </si>
+  <si>
+    <t>3 star hotel</t>
+  </si>
+  <si>
+    <t>OK for 3 star hotel. Needs revamp. Breakfast is NOT hot cooked, so disappointed, 4 cereal choice, make your own waffles, cold boiled egg in fridge &amp; yoghurt, apple or orange juice, water, coffee and tea. Has indoor swimming pool, business centre, free WiFi in rooms, gym. After 3 days, they had scrambled eggs and sausage.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r453808794-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>453808794</t>
+  </si>
+  <si>
+    <t>01/21/2017</t>
+  </si>
+  <si>
+    <t>Not as helpful or welcoming this time</t>
+  </si>
+  <si>
+    <t>We've stayed here a number of times and should be known to the management.  But it seemed this time we were more of a bother.  They need to be more aware of return visitors so as to keep their business.  We may look elsewhere the next time.  If more than two people, make sure you get towels.  They only put two in normally.  Breakfast was not up to par, uncomfortably warm in the area, and the sausage floated in grease.  Overall, not up to what they've been in the past.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r382810314-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>382810314</t>
+  </si>
+  <si>
+    <t>06/15/2016</t>
+  </si>
+  <si>
+    <t>awesome reception</t>
+  </si>
+  <si>
+    <t>I had just arrived home from a 17 hrs flight from Dubai, picked by my husband and we needed a clean quiet hotel for the night. Manager Aundrea was very cheerful and made check in a smooth process. Will be going back to the hotel for a few more nights. Day staff and restaurant service was excellent. Hearty hot and full breakfast. Clean rooms with no smell.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r382338763-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>382338763</t>
+  </si>
+  <si>
+    <t>06/13/2016</t>
+  </si>
+  <si>
+    <t>aundrea is awesome</t>
+  </si>
+  <si>
+    <t>This is like home away from my home. The staff (Aundrea) are very welcoming and friendly to me every time I visit the Sleep Inn &amp; Suites. When I come in Aundrea always has a welcoming smile and attitude. She should get a raise or promotion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r380579574-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>380579574</t>
+  </si>
+  <si>
+    <t>06/07/2016</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>Good room, 2 queens, pretty quiet, never got awakened by noise (unless I was trying to sleep in later in the morning).  Helpful front desk staff.  Decent breakfast (it's free, so don't expect too much if you're trying to avoid carbs &amp; sugar). Good location for getting around the southwest Houston area.  Front desk clerk Andrea brought my attention to the fact that I seemed to have been charged an incorrect rate initially, and she was particularly outstanding among an already nice staff for her friendliness &amp; helpfulness.  Manager very helpful in resolving that initial billing issue &amp; ensuring that I was charged my Hotels.com rate.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r356830826-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>356830826</t>
+  </si>
+  <si>
+    <t>03/19/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good value for the area </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Always well taken care of here. They go out of their way to make your stay pleasant. Adequate full breakfast, nice rooms and helpful staff. Aundrea was particularly helpful in assisting us with our stay. For business it's a good nights rest and a good shower. Great workout room and pool. Joe is an accommodating manager for groups. Good location near restaurants as well. Within 24 minutes of downtown Houston. </t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r356303049-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>356303049</t>
+  </si>
+  <si>
+    <t>03/17/2016</t>
+  </si>
+  <si>
+    <t>Good for the area</t>
+  </si>
+  <si>
+    <t>I stayed one night here on a business stay and it was good. The lobby was nice and check in was quick. I will have to agree with other reviews that once you walk into the room, there is this really strong odor from like a cleaning chemical. The rooms are quite spacious and clean. I was having a hard time turning on the a/c thinking it didn't work, but you have to push a button where the plug is. The complimentary breakfast was good, but not as great as the Drury close by. Overall, I would stay here again if there were no more rooms at Drury or Hyatt. MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed one night here on a business stay and it was good. The lobby was nice and check in was quick. I will have to agree with other reviews that once you walk into the room, there is this really strong odor from like a cleaning chemical. The rooms are quite spacious and clean. I was having a hard time turning on the a/c thinking it didn't work, but you have to push a button where the plug is. The complimentary breakfast was good, but not as great as the Drury close by. Overall, I would stay here again if there were no more rooms at Drury or Hyatt. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r355427065-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>355427065</t>
+  </si>
+  <si>
+    <t>03/14/2016</t>
+  </si>
+  <si>
+    <t>Excellent place for a great price - very friendly and helpfull staff</t>
+  </si>
+  <si>
+    <t>Travelling for business all over the world, I always try to find "excellent deal" Hotels. In this case I have to say the "Sleep Inn &amp; Suites Stafford" was a perfect choice. Nice big and clean rooms (by the way the daily room service is excellent), WIFI working fine and they even got a small fitness room and a indoor Swimming pool. Breakfast is good, and the service at the reception in particular Aundrea is very helpfull and pleasent. I like the location of the Hotel.... in walking distance of less than 5 minutes you have a big choise of Restaurants such as Hooters, Americain Buffet and others.... On the otherside of the Highway (3 minutes away with car and 10 minutes by foot), there is a big shopping center, AMC Cinena plex and much more.I will defenately recomment this Hotel, and come back here on my next visit to Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>Travelling for business all over the world, I always try to find "excellent deal" Hotels. In this case I have to say the "Sleep Inn &amp; Suites Stafford" was a perfect choice. Nice big and clean rooms (by the way the daily room service is excellent), WIFI working fine and they even got a small fitness room and a indoor Swimming pool. Breakfast is good, and the service at the reception in particular Aundrea is very helpfull and pleasent. I like the location of the Hotel.... in walking distance of less than 5 minutes you have a big choise of Restaurants such as Hooters, Americain Buffet and others.... On the otherside of the Highway (3 minutes away with car and 10 minutes by foot), there is a big shopping center, AMC Cinena plex and much more.I will defenately recomment this Hotel, and come back here on my next visit to Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r348323680-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>348323680</t>
+  </si>
+  <si>
+    <t>02/16/2016</t>
+  </si>
+  <si>
+    <t>Great place for great price/ friendly staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stayed at this hotel with my family looking to enquirer more information  of the Houston area. Aundrea was very pleasant and helpful. She told me of the great places to eat and visit that would be suitable for my family and I. The hotel is very nice, clean and comfortable. I would definitely stay here again on my next visit and would recommend this hotel to anyone. </t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r347471916-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>347471916</t>
+  </si>
+  <si>
+    <t>02/13/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aundrea was very helpful.  She did a great job of getting me situated. So if you happen to stop in this hotel she does a  wonderful job very nice very sweet. I would definitely stay here again if I'm ever back in Texas. Close to town really nice hotel. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r342831451-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>342831451</t>
+  </si>
+  <si>
+    <t>01/26/2016</t>
+  </si>
+  <si>
+    <t>Easy Visit!</t>
+  </si>
+  <si>
+    <t>The staff at the desk was friendly.  Rooms were conformable and clean not huge but was enough for two adults and two toddlers.  Walking down the hall in the morning someones dog was barking in there room but it didn't bark during the night.  Decent breakfast selection with eggs, sausage, bagels/muffins, cereal and waffles. Saw the mgr working between breakfast room and desk.  The breakfast attendent didn't smile or talk.  The pool is NOT heated kept room tempture we were told this when we checked in.  MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>D'Andre H, Manager at Sleep Inn &amp; Suites Stafford, responded to this reviewResponded January 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 28, 2016</t>
+  </si>
+  <si>
+    <t>The staff at the desk was friendly.  Rooms were conformable and clean not huge but was enough for two adults and two toddlers.  Walking down the hall in the morning someones dog was barking in there room but it didn't bark during the night.  Decent breakfast selection with eggs, sausage, bagels/muffins, cereal and waffles. Saw the mgr working between breakfast room and desk.  The breakfast attendent didn't smile or talk.  The pool is NOT heated kept room tempture we were told this when we checked in.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r337002562-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>337002562</t>
+  </si>
+  <si>
+    <t>01/03/2016</t>
+  </si>
+  <si>
+    <t>Disappointing</t>
+  </si>
+  <si>
+    <t>Since this was a family trip, I purposely booked hotels with free breakfast and an indoor pool.  Unfortunately this location did not live up to my expectations. 
+First of all I received a phone call from a hotel associate earlier in the day telling me that they were completely booked and wanted to confirm that we were coming.  Then she told me that they were running deposits and that the credit card that I had used to reserve the room wasn't going through, and if I wanted to go ahead and give her another card.  I told her that I would wait until I got to the hotel.  Now my wallet had been stolen two weeks beforehand, and I was sure that I had reserved this room on a different account, but since I was in a museum I didn't have the time to investigate.  
+When my family arrived, the front desk was very pleasant, and checking in was easy and fast.  The front desk attendant asked if I wanted to charge my rooms to the card I had reserved with, or if I wanted to use a different card.  I asked what card I had reserved with, only to find out that the card that I used was the new account.  I asked about the phone call to find out that they were not booked, and she had no idea why I was contacted.  This made me very uneasy....Since this was a family trip, I purposely booked hotels with free breakfast and an indoor pool.  Unfortunately this location did not live up to my expectations. First of all I received a phone call from a hotel associate earlier in the day telling me that they were completely booked and wanted to confirm that we were coming.  Then she told me that they were running deposits and that the credit card that I had used to reserve the room wasn't going through, and if I wanted to go ahead and give her another card.  I told her that I would wait until I got to the hotel.  Now my wallet had been stolen two weeks beforehand, and I was sure that I had reserved this room on a different account, but since I was in a museum I didn't have the time to investigate.  When my family arrived, the front desk was very pleasant, and checking in was easy and fast.  The front desk attendant asked if I wanted to charge my rooms to the card I had reserved with, or if I wanted to use a different card.  I asked what card I had reserved with, only to find out that the card that I used was the new account.  I asked about the phone call to find out that they were not booked, and she had no idea why I was contacted.  This made me very uneasy.Our kids got dressed in their bathing suits and rushed down to the pool.  What a HUGE  disappointment!  The pool that was shown as being large was only approximately 10x10, and ice cold!  The kids couldn't utilize it at all.The next morning I went down at about 8:30 am to grab breakfast, since breakfast was served until 9 am I knew I had plenty of time to have a good meal.  That's not what happened.  When I went to the breakfast bar, there wasn't anything hot left on it.  There wasn't any eggs, sausage, bacon, or biscuits. No bagels, and only two mini banana nut muffins.  When I asked if I could get anything I was told they didn't have anything else.  This meant that my kids, who were on their way down, would have only the choice between waffles and cereal.  At this point I cancelled our reservations for the second night and moved to another hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>D'Andre H, Manager at Sleep Inn &amp; Suites Stafford, responded to this reviewResponded January 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2016</t>
+  </si>
+  <si>
+    <t>Since this was a family trip, I purposely booked hotels with free breakfast and an indoor pool.  Unfortunately this location did not live up to my expectations. 
+First of all I received a phone call from a hotel associate earlier in the day telling me that they were completely booked and wanted to confirm that we were coming.  Then she told me that they were running deposits and that the credit card that I had used to reserve the room wasn't going through, and if I wanted to go ahead and give her another card.  I told her that I would wait until I got to the hotel.  Now my wallet had been stolen two weeks beforehand, and I was sure that I had reserved this room on a different account, but since I was in a museum I didn't have the time to investigate.  
+When my family arrived, the front desk was very pleasant, and checking in was easy and fast.  The front desk attendant asked if I wanted to charge my rooms to the card I had reserved with, or if I wanted to use a different card.  I asked what card I had reserved with, only to find out that the card that I used was the new account.  I asked about the phone call to find out that they were not booked, and she had no idea why I was contacted.  This made me very uneasy....Since this was a family trip, I purposely booked hotels with free breakfast and an indoor pool.  Unfortunately this location did not live up to my expectations. First of all I received a phone call from a hotel associate earlier in the day telling me that they were completely booked and wanted to confirm that we were coming.  Then she told me that they were running deposits and that the credit card that I had used to reserve the room wasn't going through, and if I wanted to go ahead and give her another card.  I told her that I would wait until I got to the hotel.  Now my wallet had been stolen two weeks beforehand, and I was sure that I had reserved this room on a different account, but since I was in a museum I didn't have the time to investigate.  When my family arrived, the front desk was very pleasant, and checking in was easy and fast.  The front desk attendant asked if I wanted to charge my rooms to the card I had reserved with, or if I wanted to use a different card.  I asked what card I had reserved with, only to find out that the card that I used was the new account.  I asked about the phone call to find out that they were not booked, and she had no idea why I was contacted.  This made me very uneasy.Our kids got dressed in their bathing suits and rushed down to the pool.  What a HUGE  disappointment!  The pool that was shown as being large was only approximately 10x10, and ice cold!  The kids couldn't utilize it at all.The next morning I went down at about 8:30 am to grab breakfast, since breakfast was served until 9 am I knew I had plenty of time to have a good meal.  That's not what happened.  When I went to the breakfast bar, there wasn't anything hot left on it.  There wasn't any eggs, sausage, bacon, or biscuits. No bagels, and only two mini banana nut muffins.  When I asked if I could get anything I was told they didn't have anything else.  This meant that my kids, who were on their way down, would have only the choice between waffles and cereal.  At this point I cancelled our reservations for the second night and moved to another hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r334848504-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>334848504</t>
+  </si>
+  <si>
+    <t>12/24/2015</t>
+  </si>
+  <si>
+    <t>good stay</t>
+  </si>
+  <si>
+    <t>Hotel was in a great location, as its right across from a shopping plaza, good restaurants and close to other small towns with malls. comfortable beds, good breakfast. Also close to the expressway to head in any direction.MoreShow less</t>
+  </si>
+  <si>
+    <t>D'Andre H, Manager at Sleep Inn &amp; Suites Stafford, responded to this reviewResponded December 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 28, 2015</t>
+  </si>
+  <si>
+    <t>Hotel was in a great location, as its right across from a shopping plaza, good restaurants and close to other small towns with malls. comfortable beds, good breakfast. Also close to the expressway to head in any direction.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r312019632-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>312019632</t>
+  </si>
+  <si>
+    <t>09/20/2015</t>
+  </si>
+  <si>
+    <t>Recuperating after surgery</t>
+  </si>
+  <si>
+    <t>I had surgery in the Sugar Land area and needed to stay in the area longer than expected so I had to move to a cheaper hotel. So glad I chose this hotel, my room was spotless and the pillow top mattress was god send (they are my weakness).MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>D'Andre H, Manager at Sleep Inn &amp; Suites Stafford, responded to this reviewResponded September 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 21, 2015</t>
+  </si>
+  <si>
+    <t>I had surgery in the Sugar Land area and needed to stay in the area longer than expected so I had to move to a cheaper hotel. So glad I chose this hotel, my room was spotless and the pillow top mattress was god send (they are my weakness).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r288720605-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>288720605</t>
+  </si>
+  <si>
+    <t>07/13/2015</t>
+  </si>
+  <si>
+    <t>The top hotel in the Sugarland area</t>
+  </si>
+  <si>
+    <t>great Hotel - I would definitely recommend it. Offers free breakfast and the staff is always smiling. The GM, I think his name is Mr. Holmes, is especially nice and he reminds me of a certain TV Personality..couldn't say for sure. The evening reception was fun. The rooms are clean and spacious. Would totally stay here. It is a great location. Recommended. MoreShow less</t>
+  </si>
+  <si>
+    <t>D'Andre H, General Manager at Sleep Inn &amp; Suites Stafford, responded to this reviewResponded July 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2015</t>
+  </si>
+  <si>
+    <t>great Hotel - I would definitely recommend it. Offers free breakfast and the staff is always smiling. The GM, I think his name is Mr. Holmes, is especially nice and he reminds me of a certain TV Personality..couldn't say for sure. The evening reception was fun. The rooms are clean and spacious. Would totally stay here. It is a great location. Recommended. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r286538541-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>286538541</t>
+  </si>
+  <si>
+    <t>07/07/2015</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Great accommodations, good pool, pleasant and accommodating staff.  Easy access on and off the freeway.  Plenty to eat in walking distance.  Best couple of nights sleep I have had in the last year traveling. I really enjoyed the manager happy hour and salsa at the breakfast.  Fitness center is small but adequate and everything worked.  I checked in super late and had no problems whatsoever. I would highly recommend for a stay of you are in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Great accommodations, good pool, pleasant and accommodating staff.  Easy access on and off the freeway.  Plenty to eat in walking distance.  Best couple of nights sleep I have had in the last year traveling. I really enjoyed the manager happy hour and salsa at the breakfast.  Fitness center is small but adequate and everything worked.  I checked in super late and had no problems whatsoever. I would highly recommend for a stay of you are in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r284728153-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>284728153</t>
+  </si>
+  <si>
+    <t>07/01/2015</t>
+  </si>
+  <si>
+    <t>clean, convient, and friendly</t>
+  </si>
+  <si>
+    <t>The hotel was not directly on a highway but was located  in a quiet area just 1/2 block off the highway.  It was easy to get to. There was an extensive  continental breakfast.  Check in was easy and quick.  We had some trouble getting on the internet and Judy was very knowledgeable and quickly set up our kindle  and phone.She was extremely friendly and helpful. We did have some problems when the internet was busy that was solved by changing the WiFi connection- there were 5. The room was so clean and everything was nice and new looking. All doors open to the inside and the pool is indoors.  The exercise room was nice. We would definitely stay here again when we are in the areaMoreShow less</t>
+  </si>
+  <si>
+    <t>D'Andre H, General Manager at Sleep Inn &amp; Suites Stafford, responded to this reviewResponded July 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 2, 2015</t>
+  </si>
+  <si>
+    <t>The hotel was not directly on a highway but was located  in a quiet area just 1/2 block off the highway.  It was easy to get to. There was an extensive  continental breakfast.  Check in was easy and quick.  We had some trouble getting on the internet and Judy was very knowledgeable and quickly set up our kindle  and phone.She was extremely friendly and helpful. We did have some problems when the internet was busy that was solved by changing the WiFi connection- there were 5. The room was so clean and everything was nice and new looking. All doors open to the inside and the pool is indoors.  The exercise room was nice. We would definitely stay here again when we are in the areaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r266878796-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>266878796</t>
+  </si>
+  <si>
+    <t>04/20/2015</t>
+  </si>
+  <si>
+    <t>Pleasantly Surprised!!</t>
+  </si>
+  <si>
+    <t>We typically avoid Sleep Inns b/c so often their rooms are small and crowded, but that is not the case here.  The room was spacious and comfortable.  The young lady at the check-in desk was friendly and helpful (when I asked about a place to eat).  WiFi was good and breakfast was what you would expect at a Choice property. I only have a couple of (minor) complaints. 1) The window in our room “faced” the outside smoking area and just before 10:00 PM a couple of people were out there having a nice conversation while they smoked and their voices carried into our room.  One of them left and the other one stayed, talking on his cell phone.  Then around 7:30 AM an employee was out there talking loudly on his phone.  2) A few times I could hear the people in the room above us walking around…no idea if they are “heavy footed” or if the sound barrier isn’t good enough.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>D'Andre H, General Manager at Sleep Inn &amp; Suites Stafford, responded to this reviewResponded April 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2015</t>
+  </si>
+  <si>
+    <t>We typically avoid Sleep Inns b/c so often their rooms are small and crowded, but that is not the case here.  The room was spacious and comfortable.  The young lady at the check-in desk was friendly and helpful (when I asked about a place to eat).  WiFi was good and breakfast was what you would expect at a Choice property. I only have a couple of (minor) complaints. 1) The window in our room “faced” the outside smoking area and just before 10:00 PM a couple of people were out there having a nice conversation while they smoked and their voices carried into our room.  One of them left and the other one stayed, talking on his cell phone.  Then around 7:30 AM an employee was out there talking loudly on his phone.  2) A few times I could hear the people in the room above us walking around…no idea if they are “heavy footed” or if the sound barrier isn’t good enough.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r266471028-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>266471028</t>
+  </si>
+  <si>
+    <t>04/18/2015</t>
+  </si>
+  <si>
+    <t>Almost Great</t>
+  </si>
+  <si>
+    <t>Hard place to review. Room looked recently renovated and clean, but when I first opened door there was a empty water bottle on floor. Next, the employees I spoke with were friendly enough, but you could never find anyone at front desk. There was plenty to choose from at breakfast and they fed us for free 2 different nights during the week, so that was pretty nice. Overall I would recommend the hotel. With just a little more attention to detail it would be a 5 star rating.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hard place to review. Room looked recently renovated and clean, but when I first opened door there was a empty water bottle on floor. Next, the employees I spoke with were friendly enough, but you could never find anyone at front desk. There was plenty to choose from at breakfast and they fed us for free 2 different nights during the week, so that was pretty nice. Overall I would recommend the hotel. With just a little more attention to detail it would be a 5 star rating.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r262008372-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>262008372</t>
+  </si>
+  <si>
+    <t>03/26/2015</t>
+  </si>
+  <si>
+    <t>Decent but WAY overpriced.</t>
+  </si>
+  <si>
+    <t>Stayed here on business and only because it was the closest place to my seminar that had smoking rooms.  Waited 5 minutes at front desk before deciding to look around for help.  No problem with reservation.  Nice room.  WiFi was horrible.  Secure supposedly but didn't work most of the time.  Breakfast was same old thing.  They didn't start brewing fresh coffee until the buffet thermos was empty?  Tried to book an extra day through hotels.com but they said none were available.  When I called hotel from seminar they did have my room still available but it was very expensive.  When I got home on my last evening no one had been in my room.  No coffee, no bed service, no shampoo, no trash pickup or towels.  It was very late so I didn't bother the desk.  When I checked out the next morning they were "nice" enough to take a whole $20 off the very expensive bill.  I guess that's better than nothing but not what I was expecting.  I will admit the guy I reported this to was very, very nice about it.   I'd stay here again if I had to return to this area but my expectations would be lower next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>D'Andre H, General Manager at Sleep Inn &amp; Suites Stafford, responded to this reviewResponded March 31, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 31, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here on business and only because it was the closest place to my seminar that had smoking rooms.  Waited 5 minutes at front desk before deciding to look around for help.  No problem with reservation.  Nice room.  WiFi was horrible.  Secure supposedly but didn't work most of the time.  Breakfast was same old thing.  They didn't start brewing fresh coffee until the buffet thermos was empty?  Tried to book an extra day through hotels.com but they said none were available.  When I called hotel from seminar they did have my room still available but it was very expensive.  When I got home on my last evening no one had been in my room.  No coffee, no bed service, no shampoo, no trash pickup or towels.  It was very late so I didn't bother the desk.  When I checked out the next morning they were "nice" enough to take a whole $20 off the very expensive bill.  I guess that's better than nothing but not what I was expecting.  I will admit the guy I reported this to was very, very nice about it.   I'd stay here again if I had to return to this area but my expectations would be lower next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r251015980-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>251015980</t>
+  </si>
+  <si>
+    <t>01/25/2015</t>
+  </si>
+  <si>
+    <t>Business trip</t>
+  </si>
+  <si>
+    <t>staff is friendly, gave us great deal for staying 3 weeks. However, the wifi is horrible and since we needed it for work it was pretty sad when our work that normally takes 5-15 minutes took 2-6 hours. Our room was nice and the few times we asked for cleaning they did really well. Breakfast was ok but there needs to be a wider variety and needs to be kept more stocked with waffle batter and pastries. The managers meals on Tues and Wedn was at best mediocre. There was only sprite and occasionally bottled water, half the time the food was cold when it needed to be kept at a safe warm temperature. MoreShow less</t>
+  </si>
+  <si>
+    <t>D'Andre H, General Manager at Sleep Inn &amp; Suites Stafford, responded to this reviewResponded January 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 27, 2015</t>
+  </si>
+  <si>
+    <t>staff is friendly, gave us great deal for staying 3 weeks. However, the wifi is horrible and since we needed it for work it was pretty sad when our work that normally takes 5-15 minutes took 2-6 hours. Our room was nice and the few times we asked for cleaning they did really well. Breakfast was ok but there needs to be a wider variety and needs to be kept more stocked with waffle batter and pastries. The managers meals on Tues and Wedn was at best mediocre. There was only sprite and occasionally bottled water, half the time the food was cold when it needed to be kept at a safe warm temperature. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r250094313-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>250094313</t>
+  </si>
+  <si>
+    <t>01/19/2015</t>
+  </si>
+  <si>
+    <t>Nice comfortable rooms</t>
+  </si>
+  <si>
+    <t>I have stayed at Sleep Inn and Suites in Stafford on 2 previous house hunting trips. The hotel staff has been friendly and helpful. The rooms were clean and neat and they actually have smoking rooms availiable  lor those of us who smoke.' The hot breakfast is real food and not just pastries  and cereal.  It is in a quiet area just off of the freeway in a quiet area. We need more great places like this .MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>D'Andre H, General Manager at Sleep Inn &amp; Suites Stafford, responded to this reviewResponded January 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 21, 2015</t>
+  </si>
+  <si>
+    <t>I have stayed at Sleep Inn and Suites in Stafford on 2 previous house hunting trips. The hotel staff has been friendly and helpful. The rooms were clean and neat and they actually have smoking rooms availiable  lor those of us who smoke.' The hot breakfast is real food and not just pastries  and cereal.  It is in a quiet area just off of the freeway in a quiet area. We need more great places like this .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r246728797-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>246728797</t>
+  </si>
+  <si>
+    <t>12/31/2014</t>
+  </si>
+  <si>
+    <t>Christmas in Texas</t>
+  </si>
+  <si>
+    <t>This Sleep Inn was pleasant and quiet. It is located off of the freeway in an area that has many restaurants and stores.The staff was helpful and check in/out was easy. The breakfast was the usual, scrambled eggs, sausage, toast, waffles, and muffins.The room was spacious and comfortable. We had a first floor room that was very quiet.The only drawback was the lack of hand bars in the tub/shower.MoreShow less</t>
+  </si>
+  <si>
+    <t>D'Andre H, General Manager at Sleep Inn &amp; Suites Stafford, responded to this reviewResponded January 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 2, 2015</t>
+  </si>
+  <si>
+    <t>This Sleep Inn was pleasant and quiet. It is located off of the freeway in an area that has many restaurants and stores.The staff was helpful and check in/out was easy. The breakfast was the usual, scrambled eggs, sausage, toast, waffles, and muffins.The room was spacious and comfortable. We had a first floor room that was very quiet.The only drawback was the lack of hand bars in the tub/shower.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r239667991-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>239667991</t>
+  </si>
+  <si>
+    <t>11/13/2014</t>
+  </si>
+  <si>
+    <t>Good place to have rest.</t>
+  </si>
+  <si>
+    <t>Good and nice place to rest and enjoy your holidays.Nice and courteous staff, especially Joe and Juddy front office receptionist.Generally I recommend this place family getaway and honeymoon.Temple O.NigeriaMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>D'Andre H, General Manager at Sleep Inn &amp; Suites Stafford, responded to this reviewResponded December 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 5, 2014</t>
+  </si>
+  <si>
+    <t>Good and nice place to rest and enjoy your holidays.Nice and courteous staff, especially Joe and Juddy front office receptionist.Generally I recommend this place family getaway and honeymoon.Temple O.NigeriaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r223928052-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>223928052</t>
+  </si>
+  <si>
+    <t>08/23/2014</t>
+  </si>
+  <si>
+    <t>Second stay just as good</t>
+  </si>
+  <si>
+    <t>I brought a group to stay for five days and we were treated very well. The manager was more than helpful with our reservation. Joe did a great job of making sure all was as promised. Great breakfast buffet and indoor pool as well. Would definitely stay here again. Clean, safe and close to many good restaurants. MoreShow less</t>
+  </si>
+  <si>
+    <t>D'Andre H, General Manager at Sleep Inn &amp; Suites Stafford, responded to this reviewResponded August 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 26, 2014</t>
+  </si>
+  <si>
+    <t>I brought a group to stay for five days and we were treated very well. The manager was more than helpful with our reservation. Joe did a great job of making sure all was as promised. Great breakfast buffet and indoor pool as well. Would definitely stay here again. Clean, safe and close to many good restaurants. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r221457563-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>221457563</t>
+  </si>
+  <si>
+    <t>08/12/2014</t>
+  </si>
+  <si>
+    <t>Good value for stay</t>
+  </si>
+  <si>
+    <t>We visit The Stafford Centre for concerts and always stay at this Sleep Inn. Good value and not experienced any issues. Good breakfast but would  appreciate more choices. We have another reservation here soon.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>D'Andre H, General Manager at Sleep Inn &amp; Suites Stafford, responded to this reviewResponded August 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2014</t>
+  </si>
+  <si>
+    <t>We visit The Stafford Centre for concerts and always stay at this Sleep Inn. Good value and not experienced any issues. Good breakfast but would  appreciate more choices. We have another reservation here soon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r207728233-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>207728233</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>Good Value.</t>
+  </si>
+  <si>
+    <t>A clean comfortable room, acceptable service .. just what we needed.  We were in town for several days for a family get together and spent very little time at the hotel.  It met our needs and we'd stay there again if in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>D'Andre H, General Manager at Sleep Inn &amp; Suites Stafford, responded to this reviewResponded May 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2014</t>
+  </si>
+  <si>
+    <t>A clean comfortable room, acceptable service .. just what we needed.  We were in town for several days for a family get together and spent very little time at the hotel.  It met our needs and we'd stay there again if in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r204249829-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>204249829</t>
+  </si>
+  <si>
+    <t>05/06/2014</t>
+  </si>
+  <si>
+    <t>Pleasant Surprise</t>
+  </si>
+  <si>
+    <t>CLEAN , comfortable, easy access. Loved having a fridge and microwave. Stayed 3 nights. I thought I'd check out and go elsewhere but it was all I needed.  Coffee: meh. Check in: meh. Joe worked desk the next day and he was very accomodating, professional, and courteous. He helped me print my boarding passes and couldn't have been kinder. I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>D'Andre H, General Manager at Sleep Inn &amp; Suites Stafford, responded to this reviewResponded May 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2014</t>
+  </si>
+  <si>
+    <t>CLEAN , comfortable, easy access. Loved having a fridge and microwave. Stayed 3 nights. I thought I'd check out and go elsewhere but it was all I needed.  Coffee: meh. Check in: meh. Joe worked desk the next day and he was very accomodating, professional, and courteous. He helped me print my boarding passes and couldn't have been kinder. I would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r189014449-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>189014449</t>
+  </si>
+  <si>
+    <t>12/30/2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value hotel,  . </t>
+  </si>
+  <si>
+    <t>Its  clean and quiet so I liked for that, however little things tell you attention to details,  for example needed toothpaste but they were out,  may be?Coffee cups and lids didn't fit.Rest, decent value for money.  MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>D'Andre H, General Manager at Sleep Inn &amp; Suites Stafford, responded to this reviewResponded January 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 4, 2014</t>
+  </si>
+  <si>
+    <t>Its  clean and quiet so I liked for that, however little things tell you attention to details,  for example needed toothpaste but they were out,  may be?Coffee cups and lids didn't fit.Rest, decent value for money.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r174022497-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>174022497</t>
+  </si>
+  <si>
+    <t>08/25/2013</t>
+  </si>
+  <si>
+    <t>Service is terrible and cleanliness is a problem.</t>
+  </si>
+  <si>
+    <t>We stayed here with a wedding party and it was terrible.  The rooms are hot/sticky and smell moldy.  The sheets feel damp.  Workout room is sub par, and constantly run out of coffee and amenities in the lobby.  Our rooms weren't cleaned for two days.  When we approached the management, they wouldn't return our calls and nobody addressed the problem.  We had to clean our own rooms.  Please save yourself the frustration and find another hotel. This one doesn't seem to care to earn anyone's business.MoreShow less</t>
+  </si>
+  <si>
+    <t>D'Andre H, General Manager at Sleep Inn &amp; Suites Stafford, responded to this reviewResponded August 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 26, 2013</t>
+  </si>
+  <si>
+    <t>We stayed here with a wedding party and it was terrible.  The rooms are hot/sticky and smell moldy.  The sheets feel damp.  Workout room is sub par, and constantly run out of coffee and amenities in the lobby.  Our rooms weren't cleaned for two days.  When we approached the management, they wouldn't return our calls and nobody addressed the problem.  We had to clean our own rooms.  Please save yourself the frustration and find another hotel. This one doesn't seem to care to earn anyone's business.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r173411418-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>173411418</t>
+  </si>
+  <si>
+    <t>08/21/2013</t>
+  </si>
+  <si>
+    <t>Beware.....</t>
+  </si>
+  <si>
+    <t>Bitten by a Brown Recluse Spider during my stay inside this hotel, at first was transported to a clinic of choice by the hotel and offered to pay for medical treatment, but when it became apparent that the injuries were much more serious, requiring a 9 day hospital stay they backed out of the offer to pay for medical expenses, and turned it over to their insurance company that has offered to pay $3500.00 worth of payments for $43000.00 worth of medical expenses.AND CHARGED ME FOR THE NINE DAYS I WAS AT THE HOSPITAL.DO NOT EVEN THINK OF STAYING AT THIS HOTEL!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>Bitten by a Brown Recluse Spider during my stay inside this hotel, at first was transported to a clinic of choice by the hotel and offered to pay for medical treatment, but when it became apparent that the injuries were much more serious, requiring a 9 day hospital stay they backed out of the offer to pay for medical expenses, and turned it over to their insurance company that has offered to pay $3500.00 worth of payments for $43000.00 worth of medical expenses.AND CHARGED ME FOR THE NINE DAYS I WAS AT THE HOSPITAL.DO NOT EVEN THINK OF STAYING AT THIS HOTEL!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r167519705-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>167519705</t>
+  </si>
+  <si>
+    <t>07/14/2013</t>
+  </si>
+  <si>
+    <t>Clean rooms, nothing special</t>
+  </si>
+  <si>
+    <t>This hotel is decent value for the money. Pretty standard hotel. Rooms are clean with refrigerator, microwave and coffee. The fitness center does not have enough equipment to be called that; just 3 cardio machines in an overheated room.Breakfast is not bad. A few hot items and continental.MoreShow less</t>
+  </si>
+  <si>
+    <t>D'Andre H, General Manager at Sleep Inn &amp; Suites Stafford, responded to this reviewResponded July 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2013</t>
+  </si>
+  <si>
+    <t>This hotel is decent value for the money. Pretty standard hotel. Rooms are clean with refrigerator, microwave and coffee. The fitness center does not have enough equipment to be called that; just 3 cardio machines in an overheated room.Breakfast is not bad. A few hot items and continental.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r154909823-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>154909823</t>
+  </si>
+  <si>
+    <t>03/17/2013</t>
+  </si>
+  <si>
+    <t>Very satisfied</t>
+  </si>
+  <si>
+    <t>Courteous staff, even greeted us during breakfast.  Rooms were clean and comfortable. If the indoor pool would have been heated, I would have rated the property excellent. Nevertheless, I would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>D'Andre H, General Manager at Sleep Inn &amp; Suites Stafford, responded to this reviewResponded March 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2013</t>
+  </si>
+  <si>
+    <t>Courteous staff, even greeted us during breakfast.  Rooms were clean and comfortable. If the indoor pool would have been heated, I would have rated the property excellent. Nevertheless, I would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r154098210-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>154098210</t>
+  </si>
+  <si>
+    <t>03/09/2013</t>
+  </si>
+  <si>
+    <t>Stay there as a last resort.</t>
+  </si>
+  <si>
+    <t>We needed a place for a short stay. I read a review where another guest said it smelled muggy - well they were right. I wish I had paid more attention to that detail before booking. The room would smell horrible every time we turned AC on. Had to open the window instead. Very bad breakfast!! Hardly anything was served and nothing I mean nothing was replenished. If it was gone it was gone by 8 am! The people at the front desk were chatting when we left in the morning. When we returned after lunch they were in the same pose chatting and many guests were walking around waiting for service. Terrible is the only way to describe this place. Car was damaged in the parking lot. Very unsafe area. People in the parking lot were drunk and blasting music in their huge trucks well past midnight. Mostly truck drivers swing by this hotel. There are so many nice places in Houston, never make this mistake!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>D'Andre H, General Manager at Sleep Inn &amp; Suites Stafford, responded to this reviewResponded March 13, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2013</t>
+  </si>
+  <si>
+    <t>We needed a place for a short stay. I read a review where another guest said it smelled muggy - well they were right. I wish I had paid more attention to that detail before booking. The room would smell horrible every time we turned AC on. Had to open the window instead. Very bad breakfast!! Hardly anything was served and nothing I mean nothing was replenished. If it was gone it was gone by 8 am! The people at the front desk were chatting when we left in the morning. When we returned after lunch they were in the same pose chatting and many guests were walking around waiting for service. Terrible is the only way to describe this place. Car was damaged in the parking lot. Very unsafe area. People in the parking lot were drunk and blasting music in their huge trucks well past midnight. Mostly truck drivers swing by this hotel. There are so many nice places in Houston, never make this mistake!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r147072455-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>147072455</t>
+  </si>
+  <si>
+    <t>12/09/2012</t>
+  </si>
+  <si>
+    <t>One night stay</t>
+  </si>
+  <si>
+    <t>New property in very quiet area. Good value, they furnish newspapers and WI Fi for free as well as offering a complimentary hot breakfast. No complaints, No complaints, No complaints, No complaints, No complaints, No complaints, No complaints.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>D'Andre H, General Manager at Sleep Inn &amp; Suites Stafford, responded to this reviewResponded December 11, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 11, 2012</t>
+  </si>
+  <si>
+    <t>New property in very quiet area. Good value, they furnish newspapers and WI Fi for free as well as offering a complimentary hot breakfast. No complaints, No complaints, No complaints, No complaints, No complaints, No complaints, No complaints.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r137614311-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>137614311</t>
+  </si>
+  <si>
+    <t>08/19/2012</t>
+  </si>
+  <si>
+    <t>Great hotel with a great value, but could use a more attentive housekeeping crew.</t>
+  </si>
+  <si>
+    <t>This hotel has been way more than we expected based on online reviews. The lobby and dining area is nice, the desk staff was very friendly, the room was way bigger than what we expected, and the bed was incredibly comfy. The room was even more upgraded than we expected with a newer microwave, mini fridge and a flat screen TV (as opposed to the old school TV in pictures). The reason that they get two stars deducted is because of the room cleanliness; they could use to focus on picking up from the last tenant better. Items found: beer can, old styrofoam fountain drink cup, a sock on the chair, bar of soap in shower (with hairs-gross!), and (even more gross) a half used bottle of lotion on the bedside table. This took our great experience from 5 stars to 3. We plan on doing another mini staycation here again, but we are hoping they will clean up better!MoreShow less</t>
+  </si>
+  <si>
+    <t>D'Andre H, General Manager at Sleep Inn &amp; Suites Stafford, responded to this reviewResponded August 24, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 24, 2012</t>
+  </si>
+  <si>
+    <t>This hotel has been way more than we expected based on online reviews. The lobby and dining area is nice, the desk staff was very friendly, the room was way bigger than what we expected, and the bed was incredibly comfy. The room was even more upgraded than we expected with a newer microwave, mini fridge and a flat screen TV (as opposed to the old school TV in pictures). The reason that they get two stars deducted is because of the room cleanliness; they could use to focus on picking up from the last tenant better. Items found: beer can, old styrofoam fountain drink cup, a sock on the chair, bar of soap in shower (with hairs-gross!), and (even more gross) a half used bottle of lotion on the bedside table. This took our great experience from 5 stars to 3. We plan on doing another mini staycation here again, but we are hoping they will clean up better!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r135586980-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>135586980</t>
+  </si>
+  <si>
+    <t>07/27/2012</t>
+  </si>
+  <si>
+    <t>Loved everything but...</t>
+  </si>
+  <si>
+    <t>We stayed here for 2 nights very recently. The room was great, the bed was very comfortable &amp; the bathroom was fine. The staff members that we encountered were very helpful. The only drawback was that the air blowing out of the air conditioning unit smelled musty/moldy. Maybe it was because I'd booked a smoking room. Will stay here again with no hesitation, just in a different room.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>D'Andre H, General Manager at Sleep Inn &amp; Suites Stafford, responded to this reviewResponded August 9, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2012</t>
+  </si>
+  <si>
+    <t>We stayed here for 2 nights very recently. The room was great, the bed was very comfortable &amp; the bathroom was fine. The staff members that we encountered were very helpful. The only drawback was that the air blowing out of the air conditioning unit smelled musty/moldy. Maybe it was because I'd booked a smoking room. Will stay here again with no hesitation, just in a different room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r126506434-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>126506434</t>
+  </si>
+  <si>
+    <t>03/22/2012</t>
+  </si>
+  <si>
+    <t>While in Stafford,TX look for this hotel on 4810 Alpine Rd.</t>
+  </si>
+  <si>
+    <t>We were at this hotel for 3 days, and I must say we were impressed with everything we experienced. Staff on all 3 shifts were very helpful and friendly. On last day, I forgot my valuables in lobby, I called hotel, gentleman on night shift made sure I get everything in one piece at my home which I did.I truly admire employees honesty and their integrity.Very peaceful location. We thank you everyone at this hotel, and we will not hesitate to come and stay there again or recommend this hotel to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 15, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2012</t>
+  </si>
+  <si>
+    <t>We were at this hotel for 3 days, and I must say we were impressed with everything we experienced. Staff on all 3 shifts were very helpful and friendly. On last day, I forgot my valuables in lobby, I called hotel, gentleman on night shift made sure I get everything in one piece at my home which I did.I truly admire employees honesty and their integrity.Very peaceful location. We thank you everyone at this hotel, and we will not hesitate to come and stay there again or recommend this hotel to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r120841057-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>120841057</t>
+  </si>
+  <si>
+    <t>11/20/2011</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>This hotel is great the rooms are great, the food is great and the people are nice.  Have stayed here several times and I would reccommend this hotel to all.  Inside pool which is great to. Not many people quiet also.  Dont miss out on this hotel.  GreatTerrellsMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>This hotel is great the rooms are great, the food is great and the people are nice.  Have stayed here several times and I would reccommend this hotel to all.  Inside pool which is great to. Not many people quiet also.  Dont miss out on this hotel.  GreatTerrellsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r115225991-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>115225991</t>
+  </si>
+  <si>
+    <t>07/10/2011</t>
+  </si>
+  <si>
+    <t>Nice Stay</t>
+  </si>
+  <si>
+    <t>This is a nice hotel with plenty of restaurants and shops nearby. I would highly recommend this property to friends. the fitness room is small but it works.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>This is a nice hotel with plenty of restaurants and shops nearby. I would highly recommend this property to friends. the fitness room is small but it works.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r110712203-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>110712203</t>
+  </si>
+  <si>
+    <t>05/31/2011</t>
+  </si>
+  <si>
+    <t>Would go back again!</t>
+  </si>
+  <si>
+    <t>I searched for a reasonably priced hotel in SW Houston and found this one.  Great price with AAA discount, hot breakfast ready at 6 am, and friendly responsive desk personnel.  Free wi- fi, frig and microwave in room. Quiet area.  Easy access to Rt 59.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>I searched for a reasonably priced hotel in SW Houston and found this one.  Great price with AAA discount, hot breakfast ready at 6 am, and friendly responsive desk personnel.  Free wi- fi, frig and microwave in room. Quiet area.  Easy access to Rt 59.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r67232099-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>67232099</t>
+  </si>
+  <si>
+    <t>06/11/2010</t>
+  </si>
+  <si>
+    <t>good hotel in a good location</t>
+  </si>
+  <si>
+    <t>We had a suite on the first floor and it was nice.  The room was clean but they apparently don't move anything to vacuum or dust because I dropped something between the chair and the desk and when I reached for it and got some dust bunnies too.  They did allow us to check in early without any charge and the lady who did our check in was very friendly.  I booked on the Choice hotel website and got a really good deal with my AAA card.  The internet was a little slow but worked for what we needed.  The room was good size and the breakfast was a typical hotel breakfast.  The only complaint I had was the pull out sofa didn't have any blankets and the front desk had a hard time finding some for me.  I would stay here again though.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>We had a suite on the first floor and it was nice.  The room was clean but they apparently don't move anything to vacuum or dust because I dropped something between the chair and the desk and when I reached for it and got some dust bunnies too.  They did allow us to check in early without any charge and the lady who did our check in was very friendly.  I booked on the Choice hotel website and got a really good deal with my AAA card.  The internet was a little slow but worked for what we needed.  The room was good size and the breakfast was a typical hotel breakfast.  The only complaint I had was the pull out sofa didn't have any blankets and the front desk had a hard time finding some for me.  I would stay here again though.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r62894109-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>62894109</t>
+  </si>
+  <si>
+    <t>04/30/2010</t>
+  </si>
+  <si>
+    <t>Overall, it is a nice inn</t>
+  </si>
+  <si>
+    <t>I booked two rooms. One is for me and my son, another is for my parents in law.   The hotel is clean. The swimming pool is good.  The location is good for me since it is not far away from my friend's house and also the Chinese food/supermarket, where we plan to have a good dinner &amp; lunch.  The lady ( I should write down her name) in the reception is extremely well and in a very good services.  The only drawback is that I pick the room just beside the electricity room, which does have a noise almost for a whole night.  I was tired that night and did not report this right away to ask for a room change.  I did mentioned this to a gentlemen in the reception next day before i left.  I was told that they will figure out why.If you will pick a room far from any electricity room, it will be a nice stay for this inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>I booked two rooms. One is for me and my son, another is for my parents in law.   The hotel is clean. The swimming pool is good.  The location is good for me since it is not far away from my friend's house and also the Chinese food/supermarket, where we plan to have a good dinner &amp; lunch.  The lady ( I should write down her name) in the reception is extremely well and in a very good services.  The only drawback is that I pick the room just beside the electricity room, which does have a noise almost for a whole night.  I was tired that night and did not report this right away to ask for a room change.  I did mentioned this to a gentlemen in the reception next day before i left.  I was told that they will figure out why.If you will pick a room far from any electricity room, it will be a nice stay for this inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r51549721-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>51549721</t>
+  </si>
+  <si>
+    <t>12/20/2009</t>
+  </si>
+  <si>
+    <t>Very Good</t>
+  </si>
+  <si>
+    <t>This is a hotel located among a bunch of hotels and restaurants along the 59 freeway.  This hotel is located behind many of the hotels along the freeway.  It may be more difficult to find and it is in a quiet location.  My stay was excellent.  This hotel is superior to most Sleep Inns.  The breakfast was particularly good.  The hotel has a business center, indoor pools, and exercise center.  The rooms are small but adequate.  The hotel is very clean.  If I could get this place at a good price I would definitely stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2009</t>
+  </si>
+  <si>
+    <t>This is a hotel located among a bunch of hotels and restaurants along the 59 freeway.  This hotel is located behind many of the hotels along the freeway.  It may be more difficult to find and it is in a quiet location.  My stay was excellent.  This hotel is superior to most Sleep Inns.  The breakfast was particularly good.  The hotel has a business center, indoor pools, and exercise center.  The rooms are small but adequate.  The hotel is very clean.  If I could get this place at a good price I would definitely stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r23023713-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>23023713</t>
+  </si>
+  <si>
+    <t>12/26/2008</t>
+  </si>
+  <si>
+    <t>exactly what you are looking for to stay for a few nights</t>
+  </si>
+  <si>
+    <t>My fiancee and I stayed here for a few nights while he was taking a course.  Pros:  -The room was very nice, CLEAN, comfortable.  The ceilings were very high making the room feel a little larger.  The bed, pillows and sheets were very comfortable.  -beautiful marble coutertops-nice full length mirror and good lighting in the room-wireless internet service was great!-The complimentary breakfast was better than most, a variety of items and fresh selections.-I happened to check in a few days after my fiancee.  They wouldn't allow me into the room without verbal confirmation from my fiancee that I was indeed staying in his room.  Although this was a bit frustrating at the time (thank goodness for cell phones) it sure made me feel safe, good security measures.  Of course the front desk staff apologized for the inconvience, however I thought it was a good thing in the end!Cons:  -not even sure if this is one, however the pool is located in a separate building just outside, we didn't really seem to mind though.I would definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2008</t>
+  </si>
+  <si>
+    <t>My fiancee and I stayed here for a few nights while he was taking a course.  Pros:  -The room was very nice, CLEAN, comfortable.  The ceilings were very high making the room feel a little larger.  The bed, pillows and sheets were very comfortable.  -beautiful marble coutertops-nice full length mirror and good lighting in the room-wireless internet service was great!-The complimentary breakfast was better than most, a variety of items and fresh selections.-I happened to check in a few days after my fiancee.  They wouldn't allow me into the room without verbal confirmation from my fiancee that I was indeed staying in his room.  Although this was a bit frustrating at the time (thank goodness for cell phones) it sure made me feel safe, good security measures.  Of course the front desk staff apologized for the inconvience, however I thought it was a good thing in the end!Cons:  -not even sure if this is one, however the pool is located in a separate building just outside, we didn't really seem to mind though.I would definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r15239271-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>15239271</t>
+  </si>
+  <si>
+    <t>04/22/2008</t>
+  </si>
+  <si>
+    <t>Large room, couldn't be more satisfied with service</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprise and definitely disagree with the one star rating.  The hotel has a hot breakfast, large rooms, a nice lobby to relax in and were quick to serve for any requests I had.There was a large group staying at the hotel, but it wasn't loud or annoying. The hotel staff were pleasant at check-in and even accomodated for my children's breakfast needs.I would definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2008</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprise and definitely disagree with the one star rating.  The hotel has a hot breakfast, large rooms, a nice lobby to relax in and were quick to serve for any requests I had.There was a large group staying at the hotel, but it wasn't loud or annoying. The hotel staff were pleasant at check-in and even accomodated for my children's breakfast needs.I would definitely stay here again!More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1798,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1830,3683 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>71</v>
+      </c>
+      <c r="O7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" t="s">
+        <v>93</v>
+      </c>
+      <c r="L9" t="s">
+        <v>94</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" t="s">
+        <v>101</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>102</v>
+      </c>
+      <c r="O10" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" t="s">
+        <v>106</v>
+      </c>
+      <c r="L11" t="s">
+        <v>107</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>108</v>
+      </c>
+      <c r="O11" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" t="s">
+        <v>111</v>
+      </c>
+      <c r="K12" t="s">
+        <v>112</v>
+      </c>
+      <c r="L12" t="s">
+        <v>113</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>114</v>
+      </c>
+      <c r="O12" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" t="s">
+        <v>117</v>
+      </c>
+      <c r="K13" t="s">
+        <v>118</v>
+      </c>
+      <c r="L13" t="s">
+        <v>119</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>120</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>122</v>
+      </c>
+      <c r="J14" t="s">
+        <v>123</v>
+      </c>
+      <c r="K14" t="s">
+        <v>124</v>
+      </c>
+      <c r="L14" t="s">
+        <v>125</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>126</v>
+      </c>
+      <c r="O14" t="s">
+        <v>127</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>129</v>
+      </c>
+      <c r="J15" t="s">
+        <v>130</v>
+      </c>
+      <c r="K15" t="s">
+        <v>131</v>
+      </c>
+      <c r="L15" t="s">
+        <v>132</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>126</v>
+      </c>
+      <c r="O15" t="s">
+        <v>133</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>135</v>
+      </c>
+      <c r="J16" t="s">
+        <v>136</v>
+      </c>
+      <c r="K16" t="s">
+        <v>137</v>
+      </c>
+      <c r="L16" t="s">
+        <v>138</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>126</v>
+      </c>
+      <c r="O16" t="s">
+        <v>127</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>140</v>
+      </c>
+      <c r="J17" t="s">
+        <v>141</v>
+      </c>
+      <c r="K17" t="s">
+        <v>142</v>
+      </c>
+      <c r="L17" t="s">
+        <v>143</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>144</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>145</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>146</v>
+      </c>
+      <c r="J18" t="s">
+        <v>147</v>
+      </c>
+      <c r="K18" t="s">
+        <v>148</v>
+      </c>
+      <c r="L18" t="s">
+        <v>149</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>144</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>151</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>152</v>
+      </c>
+      <c r="J19" t="s">
+        <v>153</v>
+      </c>
+      <c r="K19" t="s">
+        <v>154</v>
+      </c>
+      <c r="L19" t="s">
+        <v>155</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>144</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>157</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>158</v>
+      </c>
+      <c r="J20" t="s">
+        <v>159</v>
+      </c>
+      <c r="K20" t="s">
+        <v>160</v>
+      </c>
+      <c r="L20" t="s">
+        <v>161</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>162</v>
+      </c>
+      <c r="O20" t="s">
+        <v>72</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>163</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>164</v>
+      </c>
+      <c r="J21" t="s">
+        <v>165</v>
+      </c>
+      <c r="K21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" t="s">
+        <v>166</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>162</v>
+      </c>
+      <c r="O21" t="s">
+        <v>133</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>167</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>168</v>
+      </c>
+      <c r="J22" t="s">
+        <v>169</v>
+      </c>
+      <c r="K22" t="s">
+        <v>170</v>
+      </c>
+      <c r="L22" t="s">
+        <v>171</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>172</v>
+      </c>
+      <c r="O22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>173</v>
+      </c>
+      <c r="X22" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>176</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>177</v>
+      </c>
+      <c r="J23" t="s">
+        <v>178</v>
+      </c>
+      <c r="K23" t="s">
+        <v>179</v>
+      </c>
+      <c r="L23" t="s">
+        <v>180</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>181</v>
+      </c>
+      <c r="O23" t="s">
+        <v>72</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>182</v>
+      </c>
+      <c r="X23" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>185</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>186</v>
+      </c>
+      <c r="J24" t="s">
+        <v>187</v>
+      </c>
+      <c r="K24" t="s">
+        <v>188</v>
+      </c>
+      <c r="L24" t="s">
+        <v>189</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>181</v>
+      </c>
+      <c r="O24" t="s">
+        <v>127</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>190</v>
+      </c>
+      <c r="X24" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>193</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>194</v>
+      </c>
+      <c r="J25" t="s">
+        <v>195</v>
+      </c>
+      <c r="K25" t="s">
+        <v>196</v>
+      </c>
+      <c r="L25" t="s">
+        <v>197</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>198</v>
+      </c>
+      <c r="O25" t="s">
+        <v>133</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>199</v>
+      </c>
+      <c r="X25" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>202</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>203</v>
+      </c>
+      <c r="J26" t="s">
+        <v>204</v>
+      </c>
+      <c r="K26" t="s">
+        <v>205</v>
+      </c>
+      <c r="L26" t="s">
+        <v>206</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>198</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>207</v>
+      </c>
+      <c r="X26" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>210</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>211</v>
+      </c>
+      <c r="J27" t="s">
+        <v>212</v>
+      </c>
+      <c r="K27" t="s">
+        <v>213</v>
+      </c>
+      <c r="L27" t="s">
+        <v>214</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>215</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>207</v>
+      </c>
+      <c r="X27" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>217</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>218</v>
+      </c>
+      <c r="J28" t="s">
+        <v>219</v>
+      </c>
+      <c r="K28" t="s">
+        <v>220</v>
+      </c>
+      <c r="L28" t="s">
+        <v>221</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>215</v>
+      </c>
+      <c r="O28" t="s">
+        <v>72</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>222</v>
+      </c>
+      <c r="X28" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>225</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>226</v>
+      </c>
+      <c r="J29" t="s">
+        <v>227</v>
+      </c>
+      <c r="K29" t="s">
+        <v>228</v>
+      </c>
+      <c r="L29" t="s">
+        <v>229</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>230</v>
+      </c>
+      <c r="O29" t="s">
+        <v>72</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>231</v>
+      </c>
+      <c r="X29" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>234</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>235</v>
+      </c>
+      <c r="J30" t="s">
+        <v>236</v>
+      </c>
+      <c r="K30" t="s">
+        <v>237</v>
+      </c>
+      <c r="L30" t="s">
+        <v>238</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>230</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>231</v>
+      </c>
+      <c r="X30" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>240</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>241</v>
+      </c>
+      <c r="J31" t="s">
+        <v>242</v>
+      </c>
+      <c r="K31" t="s">
+        <v>243</v>
+      </c>
+      <c r="L31" t="s">
+        <v>244</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>245</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>246</v>
+      </c>
+      <c r="X31" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>249</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>250</v>
+      </c>
+      <c r="J32" t="s">
+        <v>251</v>
+      </c>
+      <c r="K32" t="s">
+        <v>252</v>
+      </c>
+      <c r="L32" t="s">
+        <v>253</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>254</v>
+      </c>
+      <c r="X32" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>257</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>258</v>
+      </c>
+      <c r="J33" t="s">
+        <v>259</v>
+      </c>
+      <c r="K33" t="s">
+        <v>260</v>
+      </c>
+      <c r="L33" t="s">
+        <v>261</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>262</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>263</v>
+      </c>
+      <c r="X33" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>266</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>267</v>
+      </c>
+      <c r="J34" t="s">
+        <v>268</v>
+      </c>
+      <c r="K34" t="s">
+        <v>269</v>
+      </c>
+      <c r="L34" t="s">
+        <v>270</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>262</v>
+      </c>
+      <c r="O34" t="s">
+        <v>72</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>271</v>
+      </c>
+      <c r="X34" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>274</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>275</v>
+      </c>
+      <c r="J35" t="s">
+        <v>276</v>
+      </c>
+      <c r="K35" t="s">
+        <v>277</v>
+      </c>
+      <c r="L35" t="s">
+        <v>278</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>279</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>280</v>
+      </c>
+      <c r="X35" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>283</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>284</v>
+      </c>
+      <c r="J36" t="s">
+        <v>285</v>
+      </c>
+      <c r="K36" t="s">
+        <v>286</v>
+      </c>
+      <c r="L36" t="s">
+        <v>287</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>288</v>
+      </c>
+      <c r="X36" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>291</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>292</v>
+      </c>
+      <c r="J37" t="s">
+        <v>293</v>
+      </c>
+      <c r="K37" t="s">
+        <v>294</v>
+      </c>
+      <c r="L37" t="s">
+        <v>295</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>296</v>
+      </c>
+      <c r="O37" t="s">
+        <v>65</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>297</v>
+      </c>
+      <c r="X37" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>300</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>301</v>
+      </c>
+      <c r="J38" t="s">
+        <v>302</v>
+      </c>
+      <c r="K38" t="s">
+        <v>303</v>
+      </c>
+      <c r="L38" t="s">
+        <v>304</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>305</v>
+      </c>
+      <c r="O38" t="s">
+        <v>72</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>306</v>
+      </c>
+      <c r="X38" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>309</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>310</v>
+      </c>
+      <c r="J39" t="s">
+        <v>311</v>
+      </c>
+      <c r="K39" t="s">
+        <v>312</v>
+      </c>
+      <c r="L39" t="s">
+        <v>313</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>314</v>
+      </c>
+      <c r="O39" t="s">
+        <v>133</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>315</v>
+      </c>
+      <c r="X39" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>318</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>319</v>
+      </c>
+      <c r="J40" t="s">
+        <v>320</v>
+      </c>
+      <c r="K40" t="s">
+        <v>321</v>
+      </c>
+      <c r="L40" t="s">
+        <v>322</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>323</v>
+      </c>
+      <c r="O40" t="s">
+        <v>72</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>324</v>
+      </c>
+      <c r="X40" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>327</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>328</v>
+      </c>
+      <c r="J41" t="s">
+        <v>329</v>
+      </c>
+      <c r="K41" t="s">
+        <v>330</v>
+      </c>
+      <c r="L41" t="s">
+        <v>331</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>2</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>332</v>
+      </c>
+      <c r="X41" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>335</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>336</v>
+      </c>
+      <c r="J42" t="s">
+        <v>337</v>
+      </c>
+      <c r="K42" t="s">
+        <v>338</v>
+      </c>
+      <c r="L42" t="s">
+        <v>339</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>340</v>
+      </c>
+      <c r="O42" t="s">
+        <v>133</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>332</v>
+      </c>
+      <c r="X42" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>342</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>343</v>
+      </c>
+      <c r="J43" t="s">
+        <v>344</v>
+      </c>
+      <c r="K43" t="s">
+        <v>345</v>
+      </c>
+      <c r="L43" t="s">
+        <v>346</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>347</v>
+      </c>
+      <c r="X43" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>350</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>351</v>
+      </c>
+      <c r="J44" t="s">
+        <v>352</v>
+      </c>
+      <c r="K44" t="s">
+        <v>353</v>
+      </c>
+      <c r="L44" t="s">
+        <v>354</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>355</v>
+      </c>
+      <c r="O44" t="s">
+        <v>72</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>356</v>
+      </c>
+      <c r="X44" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>359</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>360</v>
+      </c>
+      <c r="J45" t="s">
+        <v>361</v>
+      </c>
+      <c r="K45" t="s">
+        <v>362</v>
+      </c>
+      <c r="L45" t="s">
+        <v>363</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>364</v>
+      </c>
+      <c r="O45" t="s">
+        <v>72</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>365</v>
+      </c>
+      <c r="X45" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>368</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>369</v>
+      </c>
+      <c r="J46" t="s">
+        <v>370</v>
+      </c>
+      <c r="K46" t="s">
+        <v>371</v>
+      </c>
+      <c r="L46" t="s">
+        <v>372</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>373</v>
+      </c>
+      <c r="O46" t="s">
+        <v>133</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>374</v>
+      </c>
+      <c r="X46" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>377</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>378</v>
+      </c>
+      <c r="J47" t="s">
+        <v>379</v>
+      </c>
+      <c r="K47" t="s">
+        <v>380</v>
+      </c>
+      <c r="L47" t="s">
+        <v>381</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>382</v>
+      </c>
+      <c r="X47" t="s">
+        <v>383</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>385</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>386</v>
+      </c>
+      <c r="J48" t="s">
+        <v>387</v>
+      </c>
+      <c r="K48" t="s">
+        <v>388</v>
+      </c>
+      <c r="L48" t="s">
+        <v>389</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>390</v>
+      </c>
+      <c r="O48" t="s">
+        <v>127</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>391</v>
+      </c>
+      <c r="X48" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>394</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>395</v>
+      </c>
+      <c r="J49" t="s">
+        <v>396</v>
+      </c>
+      <c r="K49" t="s">
+        <v>397</v>
+      </c>
+      <c r="L49" t="s">
+        <v>398</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>399</v>
+      </c>
+      <c r="O49" t="s">
+        <v>72</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>400</v>
+      </c>
+      <c r="X49" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>403</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>404</v>
+      </c>
+      <c r="J50" t="s">
+        <v>405</v>
+      </c>
+      <c r="K50" t="s">
+        <v>406</v>
+      </c>
+      <c r="L50" t="s">
+        <v>407</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>408</v>
+      </c>
+      <c r="O50" t="s">
+        <v>72</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>400</v>
+      </c>
+      <c r="X50" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>410</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>411</v>
+      </c>
+      <c r="J51" t="s">
+        <v>412</v>
+      </c>
+      <c r="K51" t="s">
+        <v>413</v>
+      </c>
+      <c r="L51" t="s">
+        <v>414</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>415</v>
+      </c>
+      <c r="O51" t="s">
+        <v>72</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>400</v>
+      </c>
+      <c r="X51" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>417</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>418</v>
+      </c>
+      <c r="J52" t="s">
+        <v>419</v>
+      </c>
+      <c r="K52" t="s">
+        <v>420</v>
+      </c>
+      <c r="L52" t="s">
+        <v>421</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>422</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>400</v>
+      </c>
+      <c r="X52" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>424</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>425</v>
+      </c>
+      <c r="J53" t="s">
+        <v>426</v>
+      </c>
+      <c r="K53" t="s">
+        <v>427</v>
+      </c>
+      <c r="L53" t="s">
+        <v>428</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>429</v>
+      </c>
+      <c r="O53" t="s">
+        <v>65</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>400</v>
+      </c>
+      <c r="X53" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>431</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>432</v>
+      </c>
+      <c r="J54" t="s">
+        <v>433</v>
+      </c>
+      <c r="K54" t="s">
+        <v>434</v>
+      </c>
+      <c r="L54" t="s">
+        <v>435</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>436</v>
+      </c>
+      <c r="O54" t="s">
+        <v>72</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>400</v>
+      </c>
+      <c r="X54" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>438</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>439</v>
+      </c>
+      <c r="J55" t="s">
+        <v>440</v>
+      </c>
+      <c r="K55" t="s">
+        <v>441</v>
+      </c>
+      <c r="L55" t="s">
+        <v>442</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>443</v>
+      </c>
+      <c r="O55" t="s">
+        <v>72</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>400</v>
+      </c>
+      <c r="X55" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>445</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>446</v>
+      </c>
+      <c r="J56" t="s">
+        <v>447</v>
+      </c>
+      <c r="K56" t="s">
+        <v>448</v>
+      </c>
+      <c r="L56" t="s">
+        <v>449</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>450</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>400</v>
+      </c>
+      <c r="X56" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>452</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>453</v>
+      </c>
+      <c r="J57" t="s">
+        <v>454</v>
+      </c>
+      <c r="K57" t="s">
+        <v>455</v>
+      </c>
+      <c r="L57" t="s">
+        <v>456</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>457</v>
+      </c>
+      <c r="O57" t="s">
+        <v>72</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>400</v>
+      </c>
+      <c r="X57" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>458</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_575.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_575.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="720">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,78 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r612343780-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>56707</t>
+  </si>
+  <si>
+    <t>601457</t>
+  </si>
+  <si>
+    <t>612343780</t>
+  </si>
+  <si>
+    <t>08/30/2018</t>
+  </si>
+  <si>
+    <t>did not feel welcomed</t>
+  </si>
+  <si>
+    <t>Stayed one night Monday Aug 27 2018  My expectations for a Choice hotel were higher  when I booked the Sleep Inn Stafford off Alpine rd. It's possible the owners will read this and take action of not will be difficult building return customer base...The location is couple blocks from the main freeway and looked just fine on the outside and also located far enough back so road noise was not a factor.Hotel owners and/or staff park in portico making it difficult for guest to park for check in.  The young man at the front desk did not make me feel welcome and... Very Slow.....check in. (lack of sleep? as same young man at front desk next day) I think the owner or managers family lives on the property. Room appeared nice but disinfectant smell really overwhelming. Changing rooms was not a problem once we were able to have someone come to the front desk. The other room was not as nice and it also did not smell nice but less overpowering that the 1st room. Breakfast was not attended as no coffee, no eggs and no help! The operators at this property were not customer service focus and payed attention to the hotel guests. MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed one night Monday Aug 27 2018  My expectations for a Choice hotel were higher  when I booked the Sleep Inn Stafford off Alpine rd. It's possible the owners will read this and take action of not will be difficult building return customer base...The location is couple blocks from the main freeway and looked just fine on the outside and also located far enough back so road noise was not a factor.Hotel owners and/or staff park in portico making it difficult for guest to park for check in.  The young man at the front desk did not make me feel welcome and... Very Slow.....check in. (lack of sleep? as same young man at front desk next day) I think the owner or managers family lives on the property. Room appeared nice but disinfectant smell really overwhelming. Changing rooms was not a problem once we were able to have someone come to the front desk. The other room was not as nice and it also did not smell nice but less overpowering that the 1st room. Breakfast was not attended as no coffee, no eggs and no help! The operators at this property were not customer service focus and payed attention to the hotel guests. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r563996391-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>563996391</t>
+  </si>
+  <si>
+    <t>03/03/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sufficient </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Easy checkin with good location. Plenty of restaurants within a mile or two. The complimentary breakfast left something to be desired. Very quiet on the first floor throughout the night. The only issue was the doors slamming around 6:30-7:30 am. Overall cleanliness of the room was good. Bed was comfortable with plenty of pillows. </t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r549403507-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>549403507</t>
+  </si>
+  <si>
+    <t>12/26/2017</t>
+  </si>
+  <si>
+    <t>Bed bugs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed at sleep Inn from Dec 24-26, 2017. On our last day, my son jumped out of bed and was screaming. He saw a bed bug and we took a picture, then squished it. Upon checked out, I told the front desk that they need to get the room cleaned due to bed bug infestation. I showed photos I took and just said ok will call exterminator. No apologies whatsoever. Do not stay at sleep Inn!!! Our room number was 230. I will never stay at any choice hotel brand again! </t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r548508715-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
-    <t>56707</t>
-  </si>
-  <si>
-    <t>601457</t>
-  </si>
-  <si>
     <t>548508715</t>
   </si>
   <si>
@@ -172,9 +232,6 @@
   </si>
   <si>
     <t>I initially balked at staying at a Sleep Inn owing to bad past experiences. This one, much to my surprise, was actually very, very nice. Open, airy and very clean. Had a room on the first floor which accounted for the very high ceilings. The bed was very comfortable and the room quiet. Nice pillows, too. Breakfast was OK. My only complaint is the fact that then internet was slow to the point of being barely useable. The location is a bit dicey. Not really on the main drag but off on a side road. Takes some getting to the first time.Will happily stay here again. Recommended</t>
-  </si>
-  <si>
-    <t>December 2017</t>
   </si>
   <si>
     <t xml:space="preserve"> traveled on business</t>
@@ -224,6 +281,45 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r524167069-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>524167069</t>
+  </si>
+  <si>
+    <t>09/13/2017</t>
+  </si>
+  <si>
+    <t>UNRELIABLE</t>
+  </si>
+  <si>
+    <t>I can't actually review the room as it was canceled by the hotel the day of the reservation. This was also immediately following hurricane Harvey &amp; there were no other rooms available in town. I have been on the property &amp; there was no apparent damage from the record flooding in Houston so that wasn't a reason for the cancellation. The national number for the hotel (from their website) claimed the reservation was still good however the actual hotel claimed it was canceled and the had no rooms to reinstate the booking. I never received any explanation why they just decided to not honor a standing reservation. My best guess is the franchise owner rented the room to a walk-in from the storm at full/inflated price instead of honoring the web price (discounted?) for the reservation.The end result is being left with no room in a town with over 10,000 flood evacuees also looking for rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>I can't actually review the room as it was canceled by the hotel the day of the reservation. This was also immediately following hurricane Harvey &amp; there were no other rooms available in town. I have been on the property &amp; there was no apparent damage from the record flooding in Houston so that wasn't a reason for the cancellation. The national number for the hotel (from their website) claimed the reservation was still good however the actual hotel claimed it was canceled and the had no rooms to reinstate the booking. I never received any explanation why they just decided to not honor a standing reservation. My best guess is the franchise owner rented the room to a walk-in from the storm at full/inflated price instead of honoring the web price (discounted?) for the reservation.The end result is being left with no room in a town with over 10,000 flood evacuees also looking for rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r522058931-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>522058931</t>
+  </si>
+  <si>
+    <t>09/06/2017</t>
+  </si>
+  <si>
+    <t>Harvey evacuees find safe haven at Sleep Inn and Suites</t>
+  </si>
+  <si>
+    <t>In one of the worst times to be in Southeast Texas, during HURRICANE HARVEY and a MANDATORY EVACUATION, we managed to find shelter at the SLEEP INN AND SUITES in Stafford, TX. The Inn and its wonderful, patient, staff members saved us. We live nearby but we had to leave our house due to flooding concerns. Many neighbors were scrambling to find something suitable. We found this cozy Inn, a part of the Choice Hotels chain. It is a pet friendly establishment (big + for us) so we were able to take our cat, TABBY. The rooms were big, the beds comfy and we had electricity and running water! Yea. TV watching was sketchy due to Direct TV satellite signal problems...but that was nothing compared to hundreds of thousands evacuees all over the Houston region who ended up in cramped public shelters. All surrounding restaurants and supermarkets were closed, but we felt lucky that despite the menacing times, the hotel managed to serve a warm breakfast at the hotel without difficulty.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>In one of the worst times to be in Southeast Texas, during HURRICANE HARVEY and a MANDATORY EVACUATION, we managed to find shelter at the SLEEP INN AND SUITES in Stafford, TX. The Inn and its wonderful, patient, staff members saved us. We live nearby but we had to leave our house due to flooding concerns. Many neighbors were scrambling to find something suitable. We found this cozy Inn, a part of the Choice Hotels chain. It is a pet friendly establishment (big + for us) so we were able to take our cat, TABBY. The rooms were big, the beds comfy and we had electricity and running water! Yea. TV watching was sketchy due to Direct TV satellite signal problems...but that was nothing compared to hundreds of thousands evacuees all over the Houston region who ended up in cramped public shelters. All surrounding restaurants and supermarkets were closed, but we felt lucky that despite the menacing times, the hotel managed to serve a warm breakfast at the hotel without difficulty.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r520913139-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -242,9 +338,6 @@
     <t>August 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r520544094-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -278,6 +371,42 @@
     <t>Stayed for 3 days with family at this hotel. Hotel was clean and well maintained. When Checking in had a bit of trouble, but everything got resolved quick when I mention that I had gotten the hotel thru Groupon. At first, I got a room that smelled, but Joe was very attentive and let me choose my room. Room was big, bed and pillows comfy. I'm not picky, but if you are you may find your bed sheets or pillow case lightly stained. I did , but still slept comfy. I also find something that looked like a roach egg not sure if it was, I threw it in the trash and continued to enjoy my stay. They offer breakfast ( eggs, patties, cereal, waffles, yogurt and pastries) as well as late afternoon snacks ( hot dogs , Chex, chips, sodas and beer). Indoor pool was clean although it looked a bit outdated. Management leaves the door to the pool open and you may find other people (lady and son) NOT staying at the hotel coming in... careful because they do ask for your key card to come in and use the restroom and gym. However, the area was very safe and didn't encounter any problems. The only problem I encounter was some lady I have had trouble in the past following me on my way to the hotel. Not sure how she got my room #  but hotel assured...Stayed for 3 days with family at this hotel. Hotel was clean and well maintained. When Checking in had a bit of trouble, but everything got resolved quick when I mention that I had gotten the hotel thru Groupon. At first, I got a room that smelled, but Joe was very attentive and let me choose my room. Room was big, bed and pillows comfy. I'm not picky, but if you are you may find your bed sheets or pillow case lightly stained. I did , but still slept comfy. I also find something that looked like a roach egg not sure if it was, I threw it in the trash and continued to enjoy my stay. They offer breakfast ( eggs, patties, cereal, waffles, yogurt and pastries) as well as late afternoon snacks ( hot dogs , Chex, chips, sodas and beer). Indoor pool was clean although it looked a bit outdated. Management leaves the door to the pool open and you may find other people (lady and son) NOT staying at the hotel coming in... careful because they do ask for your key card to come in and use the restroom and gym. However, the area was very safe and didn't encounter any problems. The only problem I encounter was some lady I have had trouble in the past following me on my way to the hotel. Not sure how she got my room #  but hotel assured me they didn't give info out and they were kind enough to say that if I needed to call security, they would! Gladly it didn't get to that point. Overall, it was a great place, lots of locations nearby to eat, 20 min away from downtown Houston. 20 min away from Pearland, next to Sugar Land. Would stay again if I ever come back. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r507042548-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>507042548</t>
+  </si>
+  <si>
+    <t>07/30/2017</t>
+  </si>
+  <si>
+    <t>Great location, disappointing breakfast</t>
+  </si>
+  <si>
+    <t>This hotel is comfortable and clean in a safe neighborhood within walking distance of several restaurants, including IHOP, Hooters and others. No eggs at breakfast except cold and hard-boiled. However, the bed is spacious and comfortable and the shampoo is fabulous.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r500447923-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>500447923</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Nice retreat</t>
+  </si>
+  <si>
+    <t>Clean room and complimentary breakfast,  what more can you ask for? Located in a pretty safe area, not too high traffic. Indoor pool is a plus. Plenty of free parking spaces. Only three equipments in gym. Good TV channel selections. Overall a great deal for rates from Groupon.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r499220119-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -293,9 +422,6 @@
     <t>We arrived early, they checked us in anyway, no charge, the booking was supposed to use points but was wrong, manager upgraded us for free to bigger room. Very helpful and considerate. He made sure we had a handicap accessible room for my wife. I would stay here again in a minute.</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r490550238-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -335,6 +461,36 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r479865351-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>479865351</t>
+  </si>
+  <si>
+    <t>04/28/2017</t>
+  </si>
+  <si>
+    <t>dixon</t>
+  </si>
+  <si>
+    <t>Iam at the sleep inn &amp; suites Stafford it is very nice here the lady that work here is very nice I will tell all my family to come here. The pool is very clean they also have good food in the morning. Your pet also can come have fun.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r473191861-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>473191861</t>
+  </si>
+  <si>
+    <t>04/06/2017</t>
+  </si>
+  <si>
+    <t>Well Buillt and Well Maintained Budget Motel</t>
+  </si>
+  <si>
+    <t>The property lacks visibility from the freeway but is a hidden gem at very reasonable prices. Among other things not usually found at a Sleep Inn it has a fitness center and an indoor pool. The hot breakfast is also quite good.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r461732298-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -389,6 +545,42 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r425869070-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>425869070</t>
+  </si>
+  <si>
+    <t>10/07/2016</t>
+  </si>
+  <si>
+    <t>What you want when traveling</t>
+  </si>
+  <si>
+    <t>This hotel had it all.  Beautiful and clean on the inside, friendly, a full breakfast that changed daily, gym, pool, and business center. The bed was large, new, and comfortable. The furniture was newer and appropriate.  The bathroom was new or newer. The vanity was large. Granite everywhere. Well lit inside and out. Looked like a 4-5 star hotel. I will definitely stay here again. One tiny complaint is that the computers did not work well in the business center. Overall, excellent.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r397664272-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>397664272</t>
+  </si>
+  <si>
+    <t>07/26/2016</t>
+  </si>
+  <si>
+    <t>Nice accomodations</t>
+  </si>
+  <si>
+    <t>Nice hotel. All the amenities. Clean. comfortable, friendly, ok breakfast - typical high carbs but when we are talking free -no problem. Also a small microwave and fridge in room.  Has one of those wall a/c units and I suggested they try to clean it a bit. Pretty nasty mold smell and with hot and humid Houston in the summer it's a must to run it 24/7. Also pool area outside was not attended to when i swam around 7am. No towels when I swam. Maybe just not readied that early? Otherwise a pleasant stay. Asked for a wake up call but none came!</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r382810314-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -407,9 +599,6 @@
     <t>June 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r382338763-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -425,9 +614,6 @@
     <t>This is like home away from my home. The staff (Aundrea) are very welcoming and friendly to me every time I visit the Sleep Inn &amp; Suites. When I come in Aundrea always has a welcoming smile and attitude. She should get a raise or promotion.</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r380579574-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -443,24 +629,57 @@
     <t>Good room, 2 queens, pretty quiet, never got awakened by noise (unless I was trying to sleep in later in the morning).  Helpful front desk staff.  Decent breakfast (it's free, so don't expect too much if you're trying to avoid carbs &amp; sugar). Good location for getting around the southwest Houston area.  Front desk clerk Andrea brought my attention to the fact that I seemed to have been charged an incorrect rate initially, and she was particularly outstanding among an already nice staff for her friendliness &amp; helpfulness.  Manager very helpful in resolving that initial billing issue &amp; ensuring that I was charged my Hotels.com rate.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r371953824-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>371953824</t>
+  </si>
+  <si>
+    <t>05/10/2016</t>
+  </si>
+  <si>
+    <t>Good value</t>
+  </si>
+  <si>
+    <t>Very clean room and super comfortable beds! Bathroom was also clean.  Good price. Breakfast was okay. Lobby area was very nice.  Room/hallway was quiet. We were there for two nights, I would stay there again.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r356925840-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>356925840</t>
+  </si>
+  <si>
+    <t>03/19/2016</t>
+  </si>
+  <si>
+    <t>Great for Quick Stay</t>
+  </si>
+  <si>
+    <t>We stayed for a couple nights with our dog, and the staff couldn't have been more great! They made it very easy for us, giving us the room requested and an extra towel. There is a strong odor- we initially thought it was marijuana but it must be that cleaning chemical mentioned earlier. Breakfast was decent- the sausage gravy was inedible but other than that, things were stocked and delicious. Room was perfect, clean and sizable. The bathroom wasn't so clean- found a few hairs in the shower from previous guests which was pretty distasteful. But, the people here have been very accommodating and would recommend again knowing the above problems would be fixed.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>We stayed for a couple nights with our dog, and the staff couldn't have been more great! They made it very easy for us, giving us the room requested and an extra towel. There is a strong odor- we initially thought it was marijuana but it must be that cleaning chemical mentioned earlier. Breakfast was decent- the sausage gravy was inedible but other than that, things were stocked and delicious. Room was perfect, clean and sizable. The bathroom wasn't so clean- found a few hairs in the shower from previous guests which was pretty distasteful. But, the people here have been very accommodating and would recommend again knowing the above problems would be fixed.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r356830826-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
     <t>356830826</t>
   </si>
   <si>
-    <t>03/19/2016</t>
-  </si>
-  <si>
     <t xml:space="preserve">Good value for the area </t>
   </si>
   <si>
     <t xml:space="preserve">Always well taken care of here. They go out of their way to make your stay pleasant. Adequate full breakfast, nice rooms and helpful staff. Aundrea was particularly helpful in assisting us with our stay. For business it's a good nights rest and a good shower. Great workout room and pool. Joe is an accommodating manager for groups. Good location near restaurants as well. Within 24 minutes of downtown Houston. </t>
   </si>
   <si>
-    <t>March 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r356303049-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -497,6 +716,42 @@
     <t>Travelling for business all over the world, I always try to find "excellent deal" Hotels. In this case I have to say the "Sleep Inn &amp; Suites Stafford" was a perfect choice. Nice big and clean rooms (by the way the daily room service is excellent), WIFI working fine and they even got a small fitness room and a indoor Swimming pool. Breakfast is good, and the service at the reception in particular Aundrea is very helpfull and pleasent. I like the location of the Hotel.... in walking distance of less than 5 minutes you have a big choise of Restaurants such as Hooters, Americain Buffet and others.... On the otherside of the Highway (3 minutes away with car and 10 minutes by foot), there is a big shopping center, AMC Cinena plex and much more.I will defenately recomment this Hotel, and come back here on my next visit to Houston.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r355028287-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>355028287</t>
+  </si>
+  <si>
+    <t>03/13/2016</t>
+  </si>
+  <si>
+    <t>Loss of a Family member</t>
+  </si>
+  <si>
+    <t>We were on a short time frame and a tight budget to attend a funeral of my sister in-law. we choose Sleep Inn &amp; Suites In Stafford, Tx. The location was not overly difficult to find with the use of a cell phone navigation. Check in was easy and the rooms were nice. The desk clerk Aundrea was very pleasant to deal with and even laughed at some of my less than witty jokes. The Continental breakfast will need some more attention paid to it.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r349494848-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>349494848</t>
+  </si>
+  <si>
+    <t>02/20/2016</t>
+  </si>
+  <si>
+    <t>Good location for visiting client - not so good rooms</t>
+  </si>
+  <si>
+    <t>I stayed here in recommendation of my client, it was close to the office.  The entry smelled very strong of some kind of cleaning solution.  I got room 115; the first room on the left after you leave the lobby.  The ice machine was right across the hall - not so nice.  The walls are so thin I could hear my neighbor on the phone as if she were in my room.  Also, not so nice when it's 10:30 at night and you've got to get up for work in the morning.  There must have been children above me because it sounded like people were getting body slammed into the floor / ceiling above me.  This went on for over an hour.  At about 1:00 in the morning someone from above me jumped out of bed, ran across the room and went to the bathroom - I heard every detail!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>I stayed here in recommendation of my client, it was close to the office.  The entry smelled very strong of some kind of cleaning solution.  I got room 115; the first room on the left after you leave the lobby.  The ice machine was right across the hall - not so nice.  The walls are so thin I could hear my neighbor on the phone as if she were in my room.  Also, not so nice when it's 10:30 at night and you've got to get up for work in the morning.  There must have been children above me because it sounded like people were getting body slammed into the floor / ceiling above me.  This went on for over an hour.  At about 1:00 in the morning someone from above me jumped out of bed, ran across the room and went to the bathroom - I heard every detail!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r348323680-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -512,9 +767,6 @@
     <t xml:space="preserve">I stayed at this hotel with my family looking to enquirer more information  of the Houston area. Aundrea was very pleasant and helpful. She told me of the great places to eat and visit that would be suitable for my family and I. The hotel is very nice, clean and comfortable. I would definitely stay here again on my next visit and would recommend this hotel to anyone. </t>
   </si>
   <si>
-    <t>February 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r347471916-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -552,6 +804,45 @@
   </si>
   <si>
     <t>The staff at the desk was friendly.  Rooms were conformable and clean not huge but was enough for two adults and two toddlers.  Walking down the hall in the morning someones dog was barking in there room but it didn't bark during the night.  Decent breakfast selection with eggs, sausage, bagels/muffins, cereal and waffles. Saw the mgr working between breakfast room and desk.  The breakfast attendent didn't smile or talk.  The pool is NOT heated kept room tempture we were told this when we checked in.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r341082322-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>341082322</t>
+  </si>
+  <si>
+    <t>01/18/2016</t>
+  </si>
+  <si>
+    <t>Clean and Quiet hotel</t>
+  </si>
+  <si>
+    <t>This hotel property is on a quiet and non-busy street. It is near to restaurants and a shopping mall on the other side of the freeway. It was clean and nicely decorated. Aundrea at the front desk was helpful and friendly. We will return to this hotel! The non-smoking room was really a non-smoking room, no cigarette smoke odor!MoreShow less</t>
+  </si>
+  <si>
+    <t>D'Andre H, Manager at Sleep Inn &amp; Suites Stafford, responded to this reviewResponded January 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 21, 2016</t>
+  </si>
+  <si>
+    <t>This hotel property is on a quiet and non-busy street. It is near to restaurants and a shopping mall on the other side of the freeway. It was clean and nicely decorated. Aundrea at the front desk was helpful and friendly. We will return to this hotel! The non-smoking room was really a non-smoking room, no cigarette smoke odor!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r341031174-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>341031174</t>
+  </si>
+  <si>
+    <t>Bare</t>
+  </si>
+  <si>
+    <t>This hotel does state that gives you the minimum necessities annnnnd it does exactly that. No thrills stay. The full breakfast was scrambled eggs, patty sausage, biscuits, and the usuals. I totally passed on all of it except the bananas. Just looked microwaved and dry. Now the one positive was the bed. It was very comfortable -- firm. Also the location is good. Walmart and restaurants are near their location. Let me add---I was attempting to sleep in --- I had a 1st floor room and I could hear every door, step, suitcase, and creeping sound. It all started about 5am. Sooooo maybe get a room higher up. MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel does state that gives you the minimum necessities annnnnd it does exactly that. No thrills stay. The full breakfast was scrambled eggs, patty sausage, biscuits, and the usuals. I totally passed on all of it except the bananas. Just looked microwaved and dry. Now the one positive was the bed. It was very comfortable -- firm. Also the location is good. Walmart and restaurants are near their location. Let me add---I was attempting to sleep in --- I had a 1st floor room and I could hear every door, step, suitcase, and creeping sound. It all started about 5am. Sooooo maybe get a room higher up. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r337002562-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
@@ -636,6 +927,54 @@
     <t>I had surgery in the Sugar Land area and needed to stay in the area longer than expected so I had to move to a cheaper hotel. So glad I chose this hotel, my room was spotless and the pillow top mattress was god send (they are my weakness).More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r309615785-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>309615785</t>
+  </si>
+  <si>
+    <t>09/12/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What a pleasant surprise! </t>
+  </si>
+  <si>
+    <t>We needed a place for a good night's rest after a long drive from Tn. Arrived late and staff was great, we got a late 1PM checkout offered right off the bat. The room was clean, fresh and comfortable. The breakfast was excellent, our stay was great. If you ever need a great room at a great value this is the place. Will stay there again for sure.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>D'Andre H, Manager at Sleep Inn &amp; Suites Stafford, responded to this reviewResponded September 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 14, 2015</t>
+  </si>
+  <si>
+    <t>We needed a place for a good night's rest after a long drive from Tn. Arrived late and staff was great, we got a late 1PM checkout offered right off the bat. The room was clean, fresh and comfortable. The breakfast was excellent, our stay was great. If you ever need a great room at a great value this is the place. Will stay there again for sure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r292798460-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>292798460</t>
+  </si>
+  <si>
+    <t>07/26/2015</t>
+  </si>
+  <si>
+    <t>Good Stay, Can Be Better</t>
+  </si>
+  <si>
+    <t>My family stayed here 2 nights, on business. Easy check-in, daytime staff was courteous and knowledgeable. Firstly, the room: initial impression was spacious layout, soft mattresses, and clean bathroom. However, there was a design flaw with the microwave which was placed in an extremely high location (making it unsafe for somebody preparing hot foods/beverages) and the mini-fridge which was placed in a cubby on the floor (making it difficult for retrieving food and drinks). Secondly, the bedding: pros were a comfortable mattress (no lumps or “sunken” in). Cons were stained comforters and upon requesting the front desk for new ones, we were told they did not have spares and would have to launder what we had. We were okay with that, however no one ever came by to pick it up as promised. Pillows were much too flat, even the “firm” ones, very pancake-like. Sleep quality was comfortable during our 2 night stay. Thirdly, breakfast: eating area was clean and there was a variety of selection. However, the breakfast attendant was not proactive in replenishing main items (e.g. eggs, sausages) especially it being the weekend “rush” of people. Overall, our stay was good. We come to Houston frequently on business and when the above cons can be improved, we will consider coming back to this location, as well as recommending this place to family and friends.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>My family stayed here 2 nights, on business. Easy check-in, daytime staff was courteous and knowledgeable. Firstly, the room: initial impression was spacious layout, soft mattresses, and clean bathroom. However, there was a design flaw with the microwave which was placed in an extremely high location (making it unsafe for somebody preparing hot foods/beverages) and the mini-fridge which was placed in a cubby on the floor (making it difficult for retrieving food and drinks). Secondly, the bedding: pros were a comfortable mattress (no lumps or “sunken” in). Cons were stained comforters and upon requesting the front desk for new ones, we were told they did not have spares and would have to launder what we had. We were okay with that, however no one ever came by to pick it up as promised. Pillows were much too flat, even the “firm” ones, very pancake-like. Sleep quality was comfortable during our 2 night stay. Thirdly, breakfast: eating area was clean and there was a variety of selection. However, the breakfast attendant was not proactive in replenishing main items (e.g. eggs, sausages) especially it being the weekend “rush” of people. Overall, our stay was good. We come to Houston frequently on business and when the above cons can be improved, we will consider coming back to this location, as well as recommending this place to family and friends.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r288720605-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -705,6 +1044,57 @@
     <t>The hotel was not directly on a highway but was located  in a quiet area just 1/2 block off the highway.  It was easy to get to. There was an extensive  continental breakfast.  Check in was easy and quick.  We had some trouble getting on the internet and Judy was very knowledgeable and quickly set up our kindle  and phone.She was extremely friendly and helpful. We did have some problems when the internet was busy that was solved by changing the WiFi connection- there were 5. The room was so clean and everything was nice and new looking. All doors open to the inside and the pool is indoors.  The exercise room was nice. We would definitely stay here again when we are in the areaMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r278763113-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>278763113</t>
+  </si>
+  <si>
+    <t>06/08/2015</t>
+  </si>
+  <si>
+    <t>Very Comfortable Suites</t>
+  </si>
+  <si>
+    <t>My husband and I recently stayed here and was surprised to find we enjoyed it as if we had stayed at the Hampton Inn....but at a better price! The complimentary breakfast was your typical breakfast bar at a hotel. The rooms were a nice size and the bed so plush and comfy. My only complaint would be the channel selection.MoreShow less</t>
+  </si>
+  <si>
+    <t>D'Andre H, General Manager at Sleep Inn &amp; Suites Stafford, responded to this reviewResponded June 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2015</t>
+  </si>
+  <si>
+    <t>My husband and I recently stayed here and was surprised to find we enjoyed it as if we had stayed at the Hampton Inn....but at a better price! The complimentary breakfast was your typical breakfast bar at a hotel. The rooms were a nice size and the bed so plush and comfy. My only complaint would be the channel selection.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r267737916-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>267737916</t>
+  </si>
+  <si>
+    <t>04/24/2015</t>
+  </si>
+  <si>
+    <t>Won't be staying here again, expensive for what it is</t>
+  </si>
+  <si>
+    <t>The staff was friendly, breakfast was decent, and the beds were comfortable,  but that's about all the good things I can say.The AC units are so loud that you either have to wear ear plugs or turn them off at night and sweat it out.  My 2 co-workers in other rooms said the same thing, so it wasn't just my room having a faulty unit.  The mini fridge didn't keep a constant temperature.  The room safe hadn't been checked on in so long that the batteries corroded (the front desk was pleasant and gave me batteries so I could change them myself).  My co-workers room had a pair of women's underwear in the safe (he left them there).  The fitness center only had cardiovascular equipment and no weights.  There is no dresser in the room so it's had to unpack if you are staying longer than a few days.  I was there for 5 nights and was happy my business trip got cut short so I could u sleep in peace and air conditioning at the same time.  We will be requesting a different hotel next time we stay in Sugarland.  MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>D'Andre H, General Manager at Sleep Inn &amp; Suites Stafford, responded to this reviewResponded May 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2015</t>
+  </si>
+  <si>
+    <t>The staff was friendly, breakfast was decent, and the beds were comfortable,  but that's about all the good things I can say.The AC units are so loud that you either have to wear ear plugs or turn them off at night and sweat it out.  My 2 co-workers in other rooms said the same thing, so it wasn't just my room having a faulty unit.  The mini fridge didn't keep a constant temperature.  The room safe hadn't been checked on in so long that the batteries corroded (the front desk was pleasant and gave me batteries so I could change them myself).  My co-workers room had a pair of women's underwear in the safe (he left them there).  The fitness center only had cardiovascular equipment and no weights.  There is no dresser in the room so it's had to unpack if you are staying longer than a few days.  I was there for 5 nights and was happy my business trip got cut short so I could u sleep in peace and air conditioning at the same time.  We will be requesting a different hotel next time we stay in Sugarland.  More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r266878796-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -720,9 +1110,6 @@
     <t>We typically avoid Sleep Inns b/c so often their rooms are small and crowded, but that is not the case here.  The room was spacious and comfortable.  The young lady at the check-in desk was friendly and helpful (when I asked about a place to eat).  WiFi was good and breakfast was what you would expect at a Choice property. I only have a couple of (minor) complaints. 1) The window in our room “faced” the outside smoking area and just before 10:00 PM a couple of people were out there having a nice conversation while they smoked and their voices carried into our room.  One of them left and the other one stayed, talking on his cell phone.  Then around 7:30 AM an employee was out there talking loudly on his phone.  2) A few times I could hear the people in the room above us walking around…no idea if they are “heavy footed” or if the sound barrier isn’t good enough.MoreShow less</t>
   </si>
   <si>
-    <t>April 2015</t>
-  </si>
-  <si>
     <t>D'Andre H, General Manager at Sleep Inn &amp; Suites Stafford, responded to this reviewResponded April 24, 2015</t>
   </si>
   <si>
@@ -777,6 +1164,60 @@
     <t>Stayed here on business and only because it was the closest place to my seminar that had smoking rooms.  Waited 5 minutes at front desk before deciding to look around for help.  No problem with reservation.  Nice room.  WiFi was horrible.  Secure supposedly but didn't work most of the time.  Breakfast was same old thing.  They didn't start brewing fresh coffee until the buffet thermos was empty?  Tried to book an extra day through hotels.com but they said none were available.  When I called hotel from seminar they did have my room still available but it was very expensive.  When I got home on my last evening no one had been in my room.  No coffee, no bed service, no shampoo, no trash pickup or towels.  It was very late so I didn't bother the desk.  When I checked out the next morning they were "nice" enough to take a whole $20 off the very expensive bill.  I guess that's better than nothing but not what I was expecting.  I will admit the guy I reported this to was very, very nice about it.   I'd stay here again if I had to return to this area but my expectations would be lower next time.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r252975394-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>252975394</t>
+  </si>
+  <si>
+    <t>02/06/2015</t>
+  </si>
+  <si>
+    <t>Nice staff, nice area, not so good anything else</t>
+  </si>
+  <si>
+    <t>Came here on business. The WIFI in this hotel is absolutely terrible. Stayed for two weeks, and out of all those days, every wifi channel was horrendous. Breakfast was okay. I understand it may be nice for people coming in and out, but the same breakfast for 14 days in a row got ridiculously boring. I agree with other reviewers, there needs to be some variety. Also, had some weird vibrating noise outside my window, sounds like it was coming from the pool area. I asked the front desk, and they told me its normal and that it happens in all the rooms. Umm, okay? Otherwise, staff was friendly, and hotel was in good shape.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>D'Andre H, General Manager at Sleep Inn &amp; Suites Stafford, responded to this reviewResponded February 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2015</t>
+  </si>
+  <si>
+    <t>Came here on business. The WIFI in this hotel is absolutely terrible. Stayed for two weeks, and out of all those days, every wifi channel was horrendous. Breakfast was okay. I understand it may be nice for people coming in and out, but the same breakfast for 14 days in a row got ridiculously boring. I agree with other reviewers, there needs to be some variety. Also, had some weird vibrating noise outside my window, sounds like it was coming from the pool area. I asked the front desk, and they told me its normal and that it happens in all the rooms. Umm, okay? Otherwise, staff was friendly, and hotel was in good shape.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r251187314-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>251187314</t>
+  </si>
+  <si>
+    <t>01/26/2015</t>
+  </si>
+  <si>
+    <t>Another Great Stay</t>
+  </si>
+  <si>
+    <t>This is our fourth time to take a group to the Sleep Inn and we had another great experience.  Helpful staff and group sales person.  As usual a great breakfast and near everything we needed to get to.  Great choices of restaurants nearby.  We felt safe, comfortable and cared for there.  Highly recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>D'Andre H, General Manager at Sleep Inn &amp; Suites Stafford, responded to this reviewResponded January 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 27, 2015</t>
+  </si>
+  <si>
+    <t>This is our fourth time to take a group to the Sleep Inn and we had another great experience.  Helpful staff and group sales person.  As usual a great breakfast and near everything we needed to get to.  Great choices of restaurants nearby.  We felt safe, comfortable and cared for there.  Highly recommend.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r251015980-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -792,12 +1233,6 @@
     <t>staff is friendly, gave us great deal for staying 3 weeks. However, the wifi is horrible and since we needed it for work it was pretty sad when our work that normally takes 5-15 minutes took 2-6 hours. Our room was nice and the few times we asked for cleaning they did really well. Breakfast was ok but there needs to be a wider variety and needs to be kept more stocked with waffle batter and pastries. The managers meals on Tues and Wedn was at best mediocre. There was only sprite and occasionally bottled water, half the time the food was cold when it needed to be kept at a safe warm temperature. MoreShow less</t>
   </si>
   <si>
-    <t>D'Andre H, General Manager at Sleep Inn &amp; Suites Stafford, responded to this reviewResponded January 27, 2015</t>
-  </si>
-  <si>
-    <t>Responded January 27, 2015</t>
-  </si>
-  <si>
     <t>staff is friendly, gave us great deal for staying 3 weeks. However, the wifi is horrible and since we needed it for work it was pretty sad when our work that normally takes 5-15 minutes took 2-6 hours. Our room was nice and the few times we asked for cleaning they did really well. Breakfast was ok but there needs to be a wider variety and needs to be kept more stocked with waffle batter and pastries. The managers meals on Tues and Wedn was at best mediocre. There was only sprite and occasionally bottled water, half the time the food was cold when it needed to be kept at a safe warm temperature. More</t>
   </si>
   <si>
@@ -852,6 +1287,51 @@
     <t>This Sleep Inn was pleasant and quiet. It is located off of the freeway in an area that has many restaurants and stores.The staff was helpful and check in/out was easy. The breakfast was the usual, scrambled eggs, sausage, toast, waffles, and muffins.The room was spacious and comfortable. We had a first floor room that was very quiet.The only drawback was the lack of hand bars in the tub/shower.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r242542024-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>242542024</t>
+  </si>
+  <si>
+    <t>12/02/2014</t>
+  </si>
+  <si>
+    <t>His hotel offers great quality and cleanliness for a very fair price.</t>
+  </si>
+  <si>
+    <t>I just discovered Sleep Inn &amp; Suites as part of Choice Hotels. I am very happy about this and will now add them to my hotel chain to frequent. I find them to be very clean, nice and overall great value for my dollar. I would recommend this particular hotel to anyone. The staff is both helpful and pleasant to deal with. MoreShow less</t>
+  </si>
+  <si>
+    <t>D'Andre H, General Manager at Sleep Inn &amp; Suites Stafford, responded to this reviewResponded December 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 5, 2014</t>
+  </si>
+  <si>
+    <t>I just discovered Sleep Inn &amp; Suites as part of Choice Hotels. I am very happy about this and will now add them to my hotel chain to frequent. I find them to be very clean, nice and overall great value for my dollar. I would recommend this particular hotel to anyone. The staff is both helpful and pleasant to deal with. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r241340981-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>241340981</t>
+  </si>
+  <si>
+    <t>11/24/2014</t>
+  </si>
+  <si>
+    <t>I, Charles Collier Jr. &amp; Family have been truly blessed to stay in Sleep Inn &amp; Suites Stafford.</t>
+  </si>
+  <si>
+    <t>Judy Thottakkara, has been extremely Professional and Compassionate during the Collier's stay at Sleep Inn &amp; Suites Stafford. J. Thottakkara has given outstanding service prior to making my reservation online and then meeting her in person. My family and I had to move from our previous address due to the diagnose of cancer, which has made it very differcult to go up and downstairs from my master bedroom; therefor my Doctor advised that I move to the bottom floor because of health risk. We have been waiting the approval to move into a home for lease, townhome/apartment etc...but it has been a challenge. I'm self-employed and have my DBA under the business name; IT'S TIME-CULTIVATING SEEDS FOR THE FUTURE! and I work with youth/young adults; although I can't work now, it's a joy to see young people like Judy making a difference in the lives of other's.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Judy Thottakkara, has been extremely Professional and Compassionate during the Collier's stay at Sleep Inn &amp; Suites Stafford. J. Thottakkara has given outstanding service prior to making my reservation online and then meeting her in person. My family and I had to move from our previous address due to the diagnose of cancer, which has made it very differcult to go up and downstairs from my master bedroom; therefor my Doctor advised that I move to the bottom floor because of health risk. We have been waiting the approval to move into a home for lease, townhome/apartment etc...but it has been a challenge. I'm self-employed and have my DBA under the business name; IT'S TIME-CULTIVATING SEEDS FOR THE FUTURE! and I work with youth/young adults; although I can't work now, it's a joy to see young people like Judy making a difference in the lives of other's.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r239667991-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -867,15 +1347,6 @@
     <t>Good and nice place to rest and enjoy your holidays.Nice and courteous staff, especially Joe and Juddy front office receptionist.Generally I recommend this place family getaway and honeymoon.Temple O.NigeriaMoreShow less</t>
   </si>
   <si>
-    <t>November 2014</t>
-  </si>
-  <si>
-    <t>D'Andre H, General Manager at Sleep Inn &amp; Suites Stafford, responded to this reviewResponded December 5, 2014</t>
-  </si>
-  <si>
-    <t>Responded December 5, 2014</t>
-  </si>
-  <si>
     <t>Good and nice place to rest and enjoy your holidays.Nice and courteous staff, especially Joe and Juddy front office receptionist.Generally I recommend this place family getaway and honeymoon.Temple O.NigeriaMore</t>
   </si>
   <si>
@@ -930,6 +1401,54 @@
     <t>We visit The Stafford Centre for concerts and always stay at this Sleep Inn. Good value and not experienced any issues. Good breakfast but would  appreciate more choices. We have another reservation here soon.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r217100285-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>217100285</t>
+  </si>
+  <si>
+    <t>07/23/2014</t>
+  </si>
+  <si>
+    <t>Nice hotel but staff Thumbs down</t>
+  </si>
+  <si>
+    <t>Drove from San Antonio after having a great time at Six Flags to this hotel which had been booked days earlier at about 1.30 am. When we went to check in the guy at the reception was asleep and was not happy that he was woken up and to our surprise we were informed that he has no room for us as no booking has come in. After showing our confirmation number he insisted that he has no booking and we have to pay the full rate for the 5 nights were to stay there. Mind you this is at 1.30 am in the morning with 2 tired kids. We had to get Hotels.com involved in this as the booking was done through them but when they tired to call the hotel this guy would not pick up. As there was no one else to assist us and after spending over an hour trying to get this guy to speak with the hotels.come representative, we drove away as kids were getting very sleepy. While pulling in the driveway of another hotel close by, we received a call on my cell from hotels.com stating that our booking reservation has been faxed to this hotel and we should get a room now. When we drove back, another 45 minutes were wasted as this guy was arguing with hotels.com that their credit card is not working and they are wasting his time. The...Drove from San Antonio after having a great time at Six Flags to this hotel which had been booked days earlier at about 1.30 am. When we went to check in the guy at the reception was asleep and was not happy that he was woken up and to our surprise we were informed that he has no room for us as no booking has come in. After showing our confirmation number he insisted that he has no booking and we have to pay the full rate for the 5 nights were to stay there. Mind you this is at 1.30 am in the morning with 2 tired kids. We had to get Hotels.com involved in this as the booking was done through them but when they tired to call the hotel this guy would not pick up. As there was no one else to assist us and after spending over an hour trying to get this guy to speak with the hotels.come representative, we drove away as kids were getting very sleepy. While pulling in the driveway of another hotel close by, we received a call on my cell from hotels.com stating that our booking reservation has been faxed to this hotel and we should get a room now. When we drove back, another 45 minutes were wasted as this guy was arguing with hotels.com that their credit card is not working and they are wasting his time. The matter of fact was that the only people whose time was wasted was me and I was using long distance minutes to keep in touch with hotels.com. So after over 2 hrs ordeal we received the keys to our room with a sulked face. Seeing our ordeal 2 other walk in customers walked away and I wouldn't blame them. The next day we sent a email to the Manger but no reply for about a week after we had checked out. Also during our stay, we found that the cleaners &amp; other staff serving breakfast were very unfriendly. One day a whole box of flavored coffee is there and next day it would disappear. You could see it in the store room but guests were informed that they have run out but if other staff wanted it, it would be given to them in handfuls to take home.Other then that this hotel is very centrally situated in a very good area and has all the facilities for you to enjoy.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>D'Andre H, General Manager at Sleep Inn &amp; Suites Stafford, responded to this reviewResponded July 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2014</t>
+  </si>
+  <si>
+    <t>Drove from San Antonio after having a great time at Six Flags to this hotel which had been booked days earlier at about 1.30 am. When we went to check in the guy at the reception was asleep and was not happy that he was woken up and to our surprise we were informed that he has no room for us as no booking has come in. After showing our confirmation number he insisted that he has no booking and we have to pay the full rate for the 5 nights were to stay there. Mind you this is at 1.30 am in the morning with 2 tired kids. We had to get Hotels.com involved in this as the booking was done through them but when they tired to call the hotel this guy would not pick up. As there was no one else to assist us and after spending over an hour trying to get this guy to speak with the hotels.come representative, we drove away as kids were getting very sleepy. While pulling in the driveway of another hotel close by, we received a call on my cell from hotels.com stating that our booking reservation has been faxed to this hotel and we should get a room now. When we drove back, another 45 minutes were wasted as this guy was arguing with hotels.com that their credit card is not working and they are wasting his time. The...Drove from San Antonio after having a great time at Six Flags to this hotel which had been booked days earlier at about 1.30 am. When we went to check in the guy at the reception was asleep and was not happy that he was woken up and to our surprise we were informed that he has no room for us as no booking has come in. After showing our confirmation number he insisted that he has no booking and we have to pay the full rate for the 5 nights were to stay there. Mind you this is at 1.30 am in the morning with 2 tired kids. We had to get Hotels.com involved in this as the booking was done through them but when they tired to call the hotel this guy would not pick up. As there was no one else to assist us and after spending over an hour trying to get this guy to speak with the hotels.come representative, we drove away as kids were getting very sleepy. While pulling in the driveway of another hotel close by, we received a call on my cell from hotels.com stating that our booking reservation has been faxed to this hotel and we should get a room now. When we drove back, another 45 minutes were wasted as this guy was arguing with hotels.com that their credit card is not working and they are wasting his time. The matter of fact was that the only people whose time was wasted was me and I was using long distance minutes to keep in touch with hotels.com. So after over 2 hrs ordeal we received the keys to our room with a sulked face. Seeing our ordeal 2 other walk in customers walked away and I wouldn't blame them. The next day we sent a email to the Manger but no reply for about a week after we had checked out. Also during our stay, we found that the cleaners &amp; other staff serving breakfast were very unfriendly. One day a whole box of flavored coffee is there and next day it would disappear. You could see it in the store room but guests were informed that they have run out but if other staff wanted it, it would be given to them in handfuls to take home.Other then that this hotel is very centrally situated in a very good area and has all the facilities for you to enjoy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r216779720-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>216779720</t>
+  </si>
+  <si>
+    <t>07/22/2014</t>
+  </si>
+  <si>
+    <t>sleep inn</t>
+  </si>
+  <si>
+    <t>Excellent place to stay. We have a special needs son, so the breakfast was awesome, swimming pool and workout room were great for him. The room smelled a little musty, but the front desk gave us a bottle to spray in the room. Everyone was very friendly and helpful. The only problem I had was, we went though hotels.com and they charged us $130.00 and the hotel charged only $80.00 so we would have saved $50.00by calling them directly.           MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Excellent place to stay. We have a special needs son, so the breakfast was awesome, swimming pool and workout room were great for him. The room smelled a little musty, but the front desk gave us a bottle to spray in the room. Everyone was very friendly and helpful. The only problem I had was, we went though hotels.com and they charged us $130.00 and the hotel charged only $80.00 so we would have saved $50.00by calling them directly.           More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r207728233-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -999,9 +1518,6 @@
     <t>Its  clean and quiet so I liked for that, however little things tell you attention to details,  for example needed toothpaste but they were out,  may be?Coffee cups and lids didn't fit.Rest, decent value for money.  MoreShow less</t>
   </si>
   <si>
-    <t>December 2013</t>
-  </si>
-  <si>
     <t>D'Andre H, General Manager at Sleep Inn &amp; Suites Stafford, responded to this reviewResponded January 4, 2014</t>
   </si>
   <si>
@@ -1011,6 +1527,57 @@
     <t>Its  clean and quiet so I liked for that, however little things tell you attention to details,  for example needed toothpaste but they were out,  may be?Coffee cups and lids didn't fit.Rest, decent value for money.  More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r182293509-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>182293509</t>
+  </si>
+  <si>
+    <t>10/24/2013</t>
+  </si>
+  <si>
+    <t>Exceptional Customer Service</t>
+  </si>
+  <si>
+    <t>Joe and David at the front desk have gone above and beyond my expectations.  I am attending training in Stafford and have stayed at the hote for five (5) consecutive weeks and will be here for five (5) more weeks.  They have continosly to handled all of my requests in the most professional, courteous and positive manner.  They are oustanding assests to your staff and wanted to make sure thier supervisors aware of their exceptional job performance.Sincerly,DHMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>D'Andre H, General Manager at Sleep Inn &amp; Suites Stafford, responded to this reviewResponded October 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 25, 2013</t>
+  </si>
+  <si>
+    <t>Joe and David at the front desk have gone above and beyond my expectations.  I am attending training in Stafford and have stayed at the hote for five (5) consecutive weeks and will be here for five (5) more weeks.  They have continosly to handled all of my requests in the most professional, courteous and positive manner.  They are oustanding assests to your staff and wanted to make sure thier supervisors aware of their exceptional job performance.Sincerly,DHMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r177235132-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>177235132</t>
+  </si>
+  <si>
+    <t>09/15/2013</t>
+  </si>
+  <si>
+    <t>Clean, good breakfast and price, but they got the room wrong</t>
+  </si>
+  <si>
+    <t>Upon entering there were about 25 bikers hanging outside playing music and drinking.  We were worried.  Inside, it was clean and nicely done.  We had reserved a King room but they said they were out so we had to take a double queen room.  Not cool.  However, the room was clean, updated with good cable, wifi and a/c.  Breakfast had many choices and plenty of places to sit.  Beds, though small, were comfortable and we never heard a noise throughout the night.  If we had the room we reserved and paid for, I would have given it a higher rating.  Will stay again if the rate is right.MoreShow less</t>
+  </si>
+  <si>
+    <t>D'Andre H, General Manager at Sleep Inn &amp; Suites Stafford, responded to this reviewResponded September 20, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 20, 2013</t>
+  </si>
+  <si>
+    <t>Upon entering there were about 25 bikers hanging outside playing music and drinking.  We were worried.  Inside, it was clean and nicely done.  We had reserved a King room but they said they were out so we had to take a double queen room.  Not cool.  However, the room was clean, updated with good cable, wifi and a/c.  Breakfast had many choices and plenty of places to sit.  Beds, though small, were comfortable and we never heard a noise throughout the night.  If we had the room we reserved and paid for, I would have given it a higher rating.  Will stay again if the rate is right.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r174022497-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -1080,6 +1647,57 @@
     <t>This hotel is decent value for the money. Pretty standard hotel. Rooms are clean with refrigerator, microwave and coffee. The fitness center does not have enough equipment to be called that; just 3 cardio machines in an overheated room.Breakfast is not bad. A few hot items and continental.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r164799912-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>164799912</t>
+  </si>
+  <si>
+    <t>06/22/2013</t>
+  </si>
+  <si>
+    <t>Experience of a 4 star hotel</t>
+  </si>
+  <si>
+    <t>This property is immaculately clean you are paying for a 2 star hotel &amp; getting in return a 4 star experience. I will certainly stay at this hotel whenever I'll be visiting the Houston area. The staff was very courteous, rooms were spacious &amp; clean. It was overall a great experience. MoreShow less</t>
+  </si>
+  <si>
+    <t>D'Andre H, General Manager at Sleep Inn &amp; Suites Stafford, responded to this reviewResponded July 7, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2013</t>
+  </si>
+  <si>
+    <t>This property is immaculately clean you are paying for a 2 star hotel &amp; getting in return a 4 star experience. I will certainly stay at this hotel whenever I'll be visiting the Houston area. The staff was very courteous, rooms were spacious &amp; clean. It was overall a great experience. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r157532762-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>157532762</t>
+  </si>
+  <si>
+    <t>04/12/2013</t>
+  </si>
+  <si>
+    <t>A good clean place to stay.</t>
+  </si>
+  <si>
+    <t>Good rooms. Service very helpful breakfast and snack dinner not gourmet but very good for he price. Good amenities, very clean and comfortable.  I would recommend this hotel to any business traveler.  We booked a number of rooms and all was as promised.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>D'Andre H, General Manager at Sleep Inn &amp; Suites Stafford, responded to this reviewResponded April 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 26, 2013</t>
+  </si>
+  <si>
+    <t>Good rooms. Service very helpful breakfast and snack dinner not gourmet but very good for he price. Good amenities, very clean and comfortable.  I would recommend this hotel to any business traveler.  We booked a number of rooms and all was as promised.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r154909823-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -1161,6 +1779,66 @@
     <t>New property in very quiet area. Good value, they furnish newspapers and WI Fi for free as well as offering a complimentary hot breakfast. No complaints, No complaints, No complaints, No complaints, No complaints, No complaints, No complaints.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r142607956-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>142607956</t>
+  </si>
+  <si>
+    <t>10/11/2012</t>
+  </si>
+  <si>
+    <t>Located in a quiet area</t>
+  </si>
+  <si>
+    <t>This hotel is located a few blocks from the freeway in a quiet area populated by apartment complexes and light industrial.
+Our king handicap room had a microwave, refrigerator, coffee and wi-fi.  Not only was our room clean, but the whole hotel was exceptionally clean.  The tile floors were shiny bright!  The hot  breakfast was a step above most comparable hotels.  The especially tasty cheesy eggs were accompanied by smoky sausage, boiled eggs, waffles, yogurt, coffee, tea, bakery, orange juice, cereal and packaged oatmeal.
+Fitness Center:  Two out of three pieces of the equipment in the fitness center were not  operational. 
+Though I knew the pool was not open, I stepped out the door to go peek in the window to see the pool.  When I tried to get back in, my room key did not open the door.  There was no way to contact the desk.  I had to wait for a passerby to open the door from the inside.    
+Business Center:  One of the two computers was set up in a German operating system.  When I called that to the attention of the desk clerk, she found someone to get the computer operational in English.  The other computer in the room was operating so slow that it was unusable.    
+There were two buckets sitting in the middle of the floor catching water leaks.  
+About 2:00 a.m., our sleep was interrupted by a fire alarm.  As I ran down...This hotel is located a few blocks from the freeway in a quiet area populated by apartment complexes and light industrial. Our king handicap room had a microwave, refrigerator, coffee and wi-fi.  Not only was our room clean, but the whole hotel was exceptionally clean.  The tile floors were shiny bright!  The hot  breakfast was a step above most comparable hotels.  The especially tasty cheesy eggs were accompanied by smoky sausage, boiled eggs, waffles, yogurt, coffee, tea, bakery, orange juice, cereal and packaged oatmeal. Fitness Center:  Two out of three pieces of the equipment in the fitness center were not  operational. Though I knew the pool was not open, I stepped out the door to go peek in the window to see the pool.  When I tried to get back in, my room key did not open the door.  There was no way to contact the desk.  I had to wait for a passerby to open the door from the inside.    Business Center:  One of the two computers was set up in a German operating system.  When I called that to the attention of the desk clerk, she found someone to get the computer operational in English.  The other computer in the room was operating so slow that it was unusable.    There were two buckets sitting in the middle of the floor catching water leaks.  About 2:00 a.m., our sleep was interrupted by a fire alarm.  As I ran down the hall towards to exit, I could smell smoke and burnt toast.  The staff stated it was a false alarm.    If I'm ever in the Sugarland/Stafford area again, I will definitely rebook because of this hotel's  cleanliness and quietness....(Well, quiet, except for the fire alarm :)MoreShow less</t>
+  </si>
+  <si>
+    <t>D'Andre H, General Manager at Sleep Inn &amp; Suites Stafford, responded to this reviewResponded October 29, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 29, 2012</t>
+  </si>
+  <si>
+    <t>This hotel is located a few blocks from the freeway in a quiet area populated by apartment complexes and light industrial.
+Our king handicap room had a microwave, refrigerator, coffee and wi-fi.  Not only was our room clean, but the whole hotel was exceptionally clean.  The tile floors were shiny bright!  The hot  breakfast was a step above most comparable hotels.  The especially tasty cheesy eggs were accompanied by smoky sausage, boiled eggs, waffles, yogurt, coffee, tea, bakery, orange juice, cereal and packaged oatmeal.
+Fitness Center:  Two out of three pieces of the equipment in the fitness center were not  operational. 
+Though I knew the pool was not open, I stepped out the door to go peek in the window to see the pool.  When I tried to get back in, my room key did not open the door.  There was no way to contact the desk.  I had to wait for a passerby to open the door from the inside.    
+Business Center:  One of the two computers was set up in a German operating system.  When I called that to the attention of the desk clerk, she found someone to get the computer operational in English.  The other computer in the room was operating so slow that it was unusable.    
+There were two buckets sitting in the middle of the floor catching water leaks.  
+About 2:00 a.m., our sleep was interrupted by a fire alarm.  As I ran down...This hotel is located a few blocks from the freeway in a quiet area populated by apartment complexes and light industrial. Our king handicap room had a microwave, refrigerator, coffee and wi-fi.  Not only was our room clean, but the whole hotel was exceptionally clean.  The tile floors were shiny bright!  The hot  breakfast was a step above most comparable hotels.  The especially tasty cheesy eggs were accompanied by smoky sausage, boiled eggs, waffles, yogurt, coffee, tea, bakery, orange juice, cereal and packaged oatmeal. Fitness Center:  Two out of three pieces of the equipment in the fitness center were not  operational. Though I knew the pool was not open, I stepped out the door to go peek in the window to see the pool.  When I tried to get back in, my room key did not open the door.  There was no way to contact the desk.  I had to wait for a passerby to open the door from the inside.    Business Center:  One of the two computers was set up in a German operating system.  When I called that to the attention of the desk clerk, she found someone to get the computer operational in English.  The other computer in the room was operating so slow that it was unusable.    There were two buckets sitting in the middle of the floor catching water leaks.  About 2:00 a.m., our sleep was interrupted by a fire alarm.  As I ran down the hall towards to exit, I could smell smoke and burnt toast.  The staff stated it was a false alarm.    If I'm ever in the Sugarland/Stafford area again, I will definitely rebook because of this hotel's  cleanliness and quietness....(Well, quiet, except for the fire alarm :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r138098147-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>138098147</t>
+  </si>
+  <si>
+    <t>08/23/2012</t>
+  </si>
+  <si>
+    <t>Customer service could be better</t>
+  </si>
+  <si>
+    <t>Don't pay attention to customer's request...even as simple as the coffee maker needs to be refilled in the breakfast lobby...during breakfast hours!Also, did not get greeted when walked in, apparently keeping your head down and doing paperwork at the front desk is more important than a simple smile or "hello"Nothing worth wanting us to do business with Sleep Inn particularly.MoreShow less</t>
+  </si>
+  <si>
+    <t>D'Andre H, General Manager at Sleep Inn &amp; Suites Stafford, responded to this reviewResponded August 26, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 26, 2012</t>
+  </si>
+  <si>
+    <t>Don't pay attention to customer's request...even as simple as the coffee maker needs to be refilled in the breakfast lobby...during breakfast hours!Also, did not get greeted when walked in, apparently keeping your head down and doing paperwork at the front desk is more important than a simple smile or "hello"Nothing worth wanting us to do business with Sleep Inn particularly.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r137614311-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -1200,9 +1878,6 @@
     <t>We stayed here for 2 nights very recently. The room was great, the bed was very comfortable &amp; the bathroom was fine. The staff members that we encountered were very helpful. The only drawback was that the air blowing out of the air conditioning unit smelled musty/moldy. Maybe it was because I'd booked a smoking room. Will stay here again with no hesitation, just in a different room.MoreShow less</t>
   </si>
   <si>
-    <t>July 2012</t>
-  </si>
-  <si>
     <t>D'Andre H, General Manager at Sleep Inn &amp; Suites Stafford, responded to this reviewResponded August 9, 2012</t>
   </si>
   <si>
@@ -1239,6 +1914,62 @@
     <t>We were at this hotel for 3 days, and I must say we were impressed with everything we experienced. Staff on all 3 shifts were very helpful and friendly. On last day, I forgot my valuables in lobby, I called hotel, gentleman on night shift made sure I get everything in one piece at my home which I did.I truly admire employees honesty and their integrity.Very peaceful location. We thank you everyone at this hotel, and we will not hesitate to come and stay there again or recommend this hotel to anyone.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r123886884-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>123886884</t>
+  </si>
+  <si>
+    <t>01/30/2012</t>
+  </si>
+  <si>
+    <t>Not Again</t>
+  </si>
+  <si>
+    <t>We normally stay at the Comfort Inn and Suites next to the Sleep Sleep Inn.
+On this trip we thought a change  in our accommodation would be something 
+new.  This was a big mistake.
+Upon arrival  we checked into our room and things started to go down hill.
+We started to unpack our stuff and after about 5 minutes the power went out in our room.  We went to the desk and explained to herabout the problem.  The desk was very helpful  and we were given an adjacent room and
+also given a $20 credit on our first night stay which I thought was very nice and it was. Things were looking good at this point.  This was day 1.
+On day 2 we had the included breakfast which was ok.  We left for the day around 12:30 pm.  I removed the Do Not Disturb Sign and told the housekeeper we were leaving and the room was ready for service.
+We came back to our room around 10:30 pm to get some sleep.  I opened the door and  to my suprise our room had not been touched.  I then went to the desk and was given towels  and wash clothes.  I was not a happy camper at this point.  The desk person was nice but could not figure out the problem and apologized.  My wife asked to speak to the the manager and she said he was unavailable.  The desk clerk said...We normally stay at the Comfort Inn and Suites next to the Sleep Sleep Inn.On this trip we thought a change  in our accommodation would be something new.  This was a big mistake.Upon arrival  we checked into our room and things started to go down hill.We started to unpack our stuff and after about 5 minutes the power went out in our room.  We went to the desk and explained to herabout the problem.  The desk was very helpful  and we were given an adjacent room andalso given a $20 credit on our first night stay which I thought was very nice and it was. Things were looking good at this point.  This was day 1.On day 2 we had the included breakfast which was ok.  We left for the day around 12:30 pm.  I removed the Do Not Disturb Sign and told the housekeeper we were leaving and the room was ready for service.We came back to our room around 10:30 pm to get some sleep.  I opened the door and  to my suprise our room had not been touched.  I then went to the desk and was given towels  and wash clothes.  I was not a happy camper at this point.  The desk person was nice but could not figure out the problem and apologized.  My wife asked to speak to the the manager and she said he was unavailable.  The desk clerk said that she would call him and have him call her on her cell phone.  The return call never happened.On day 3 everything was just as it should have been this was a welcome relief.The next morning on check out we had a problem with the bill.  The clerk had no record of the $20 credit for the 1st night.  After we explained and about 15 minutes later things were resolved.  It seems to me that the management of this property has some definite employee issues.We were really glad to get out of this hotel and put it behind us.We will be staying at the sister property Comfort Suites on our next trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>We normally stay at the Comfort Inn and Suites next to the Sleep Sleep Inn.
+On this trip we thought a change  in our accommodation would be something 
+new.  This was a big mistake.
+Upon arrival  we checked into our room and things started to go down hill.
+We started to unpack our stuff and after about 5 minutes the power went out in our room.  We went to the desk and explained to herabout the problem.  The desk was very helpful  and we were given an adjacent room and
+also given a $20 credit on our first night stay which I thought was very nice and it was. Things were looking good at this point.  This was day 1.
+On day 2 we had the included breakfast which was ok.  We left for the day around 12:30 pm.  I removed the Do Not Disturb Sign and told the housekeeper we were leaving and the room was ready for service.
+We came back to our room around 10:30 pm to get some sleep.  I opened the door and  to my suprise our room had not been touched.  I then went to the desk and was given towels  and wash clothes.  I was not a happy camper at this point.  The desk person was nice but could not figure out the problem and apologized.  My wife asked to speak to the the manager and she said he was unavailable.  The desk clerk said...We normally stay at the Comfort Inn and Suites next to the Sleep Sleep Inn.On this trip we thought a change  in our accommodation would be something new.  This was a big mistake.Upon arrival  we checked into our room and things started to go down hill.We started to unpack our stuff and after about 5 minutes the power went out in our room.  We went to the desk and explained to herabout the problem.  The desk was very helpful  and we were given an adjacent room andalso given a $20 credit on our first night stay which I thought was very nice and it was. Things were looking good at this point.  This was day 1.On day 2 we had the included breakfast which was ok.  We left for the day around 12:30 pm.  I removed the Do Not Disturb Sign and told the housekeeper we were leaving and the room was ready for service.We came back to our room around 10:30 pm to get some sleep.  I opened the door and  to my suprise our room had not been touched.  I then went to the desk and was given towels  and wash clothes.  I was not a happy camper at this point.  The desk person was nice but could not figure out the problem and apologized.  My wife asked to speak to the the manager and she said he was unavailable.  The desk clerk said that she would call him and have him call her on her cell phone.  The return call never happened.On day 3 everything was just as it should have been this was a welcome relief.The next morning on check out we had a problem with the bill.  The clerk had no record of the $20 credit for the 1st night.  After we explained and about 15 minutes later things were resolved.  It seems to me that the management of this property has some definite employee issues.We were really glad to get out of this hotel and put it behind us.We will be staying at the sister property Comfort Suites on our next trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r122408103-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>122408103</t>
+  </si>
+  <si>
+    <t>01/02/2012</t>
+  </si>
+  <si>
+    <t>High Class!</t>
+  </si>
+  <si>
+    <t>I've stayed at many Choice hotels and the Sleep Inn at Stafford is in a class apart. The lobby and reception area, with cathedral high ceilings and quality furnishings is comparable to any four star facility. Even the luggage trolleys are quality grade! Our room with king bed was tastefully decorated, the bed was comfortable, the towels soft and white and the washroom clean. The fridge was on the small size and needed defrosting, but not a major issue. Breakfast with hot scrambled eggs, sausage, cereals, fruit etc was most enjoyable and the breakfast area is delightful. There are several restaurants close by and some within walking distance. We went to one called 'American Buffet' but it was pretty dismal and I suggest you give it a wide miss! This particular Sleep Inn though is one not to miss!.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>I've stayed at many Choice hotels and the Sleep Inn at Stafford is in a class apart. The lobby and reception area, with cathedral high ceilings and quality furnishings is comparable to any four star facility. Even the luggage trolleys are quality grade! Our room with king bed was tastefully decorated, the bed was comfortable, the towels soft and white and the washroom clean. The fridge was on the small size and needed defrosting, but not a major issue. Breakfast with hot scrambled eggs, sausage, cereals, fruit etc was most enjoyable and the breakfast area is delightful. There are several restaurants close by and some within walking distance. We went to one called 'American Buffet' but it was pretty dismal and I suggest you give it a wide miss! This particular Sleep Inn though is one not to miss!.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r120841057-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -1302,6 +2033,45 @@
     <t>I searched for a reasonably priced hotel in SW Houston and found this one.  Great price with AAA discount, hot breakfast ready at 6 am, and friendly responsive desk personnel.  Free wi- fi, frig and microwave in room. Quiet area.  Easy access to Rt 59.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r107583350-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>107583350</t>
+  </si>
+  <si>
+    <t>05/09/2011</t>
+  </si>
+  <si>
+    <t>Awesome Hotel</t>
+  </si>
+  <si>
+    <t>I stayed at the hotel for a business meeting that was being held in Sugarland. The location to Sugarland is great. The hotel was very clean and the staff was very friendly and helpful.  They should have more breakfast variety but overall I recommend Sleep Inn to anyone young or old. I even added another day because I was at peace. Very quiet and soothing.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at the hotel for a business meeting that was being held in Sugarland. The location to Sugarland is great. The hotel was very clean and the staff was very friendly and helpful.  They should have more breakfast variety but overall I recommend Sleep Inn to anyone young or old. I even added another day because I was at peace. Very quiet and soothing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r90481582-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>90481582</t>
+  </si>
+  <si>
+    <t>12/22/2010</t>
+  </si>
+  <si>
+    <t>OK, But</t>
+  </si>
+  <si>
+    <t>This is a very nice upscale hotel.  I had a couple of problems which may be unique to my room, which lead to my low rating.  The hotel appears to be clean and well managed.  Everything seemed great until I got out of my bed.  There was a leak (from the bathtub), and the carpetting on one side of the bed was very wet.  The room did not stink.  In addition, the computer service in the business center was poor.  On the positive side the breakfast was much above average.  I reported the wet carpet to the desk and they assured me that the problem would be corrected.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>This is a very nice upscale hotel.  I had a couple of problems which may be unique to my room, which lead to my low rating.  The hotel appears to be clean and well managed.  Everything seemed great until I got out of my bed.  There was a leak (from the bathtub), and the carpetting on one side of the bed was very wet.  The room did not stink.  In addition, the computer service in the business center was poor.  On the positive side the breakfast was much above average.  I reported the wet carpet to the desk and they assured me that the problem would be corrected.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r67232099-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -1365,6 +2135,48 @@
     <t>This is a hotel located among a bunch of hotels and restaurants along the 59 freeway.  This hotel is located behind many of the hotels along the freeway.  It may be more difficult to find and it is in a quiet location.  My stay was excellent.  This hotel is superior to most Sleep Inns.  The breakfast was particularly good.  The hotel has a business center, indoor pools, and exercise center.  The rooms are small but adequate.  The hotel is very clean.  If I could get this place at a good price I would definitely stay again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r32135673-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>32135673</t>
+  </si>
+  <si>
+    <t>06/11/2009</t>
+  </si>
+  <si>
+    <t>Cheaper than next door</t>
+  </si>
+  <si>
+    <t>This was a nice little hotel in a clump of five or six of them right off 59.  Seemed comparable or better than the others, and was a fair bit cheaper as well.  Smooth and friendly check-in late at night, which isn't always the case.  The breakfast was better than most hotels include for free nowadays.  Free wireless internet was a plus as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>This was a nice little hotel in a clump of five or six of them right off 59.  Seemed comparable or better than the others, and was a fair bit cheaper as well.  Smooth and friendly check-in late at night, which isn't always the case.  The breakfast was better than most hotels include for free nowadays.  Free wireless internet was a plus as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r23238724-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>23238724</t>
+  </si>
+  <si>
+    <t>01/03/2009</t>
+  </si>
+  <si>
+    <t>Clean, Quiet place to stay</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel in a somewhat industrial area in Houston. The hotel is very clean, quiet, and safe. The staff is friendly and helpful. Price was reasonable. I would recommend this hotel and would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2008</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel in a somewhat industrial area in Houston. The hotel is very clean, quiet, and safe. The staff is friendly and helpful. Price was reasonable. I would recommend this hotel and would stay here again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d601457-r23023713-Sleep_Inn_Suites_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -1378,9 +2190,6 @@
   </si>
   <si>
     <t>My fiancee and I stayed here for a few nights while he was taking a course.  Pros:  -The room was very nice, CLEAN, comfortable.  The ceilings were very high making the room feel a little larger.  The bed, pillows and sheets were very comfortable.  -beautiful marble coutertops-nice full length mirror and good lighting in the room-wireless internet service was great!-The complimentary breakfast was better than most, a variety of items and fresh selections.-I happened to check in a few days after my fiancee.  They wouldn't allow me into the room without verbal confirmation from my fiancee that I was indeed staying in his room.  Although this was a bit frustrating at the time (thank goodness for cell phones) it sure made me feel safe, good security measures.  Of course the front desk staff apologized for the inconvience, however I thought it was a good thing in the end!Cons:  -not even sure if this is one, however the pool is located in a separate building just outside, we didn't really seem to mind though.I would definitely stay here again!MoreShow less</t>
-  </si>
-  <si>
-    <t>December 2008</t>
   </si>
   <si>
     <t>My fiancee and I stayed here for a few nights while he was taking a course.  Pros:  -The room was very nice, CLEAN, comfortable.  The ceilings were very high making the room feel a little larger.  The bed, pillows and sheets were very comfortable.  -beautiful marble coutertops-nice full length mirror and good lighting in the room-wireless internet service was great!-The complimentary breakfast was better than most, a variety of items and fresh selections.-I happened to check in a few days after my fiancee.  They wouldn't allow me into the room without verbal confirmation from my fiancee that I was indeed staying in his room.  Although this was a bit frustrating at the time (thank goodness for cell phones) it sure made me feel safe, good security measures.  Of course the front desk staff apologized for the inconvience, however I thought it was a good thing in the end!Cons:  -not even sure if this is one, however the pool is located in a separate building just outside, we didn't really seem to mind though.I would definitely stay here again!More</t>
@@ -1939,31 +2748,23 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="n">
-        <v>5</v>
-      </c>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>4</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
@@ -1979,54 +2780,48 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
         <v>54</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>55</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
         <v>58</v>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>59</v>
       </c>
-      <c r="O3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1</v>
-      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>1</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -2042,19 +2837,19 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
         <v>61</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>62</v>
-      </c>
-      <c r="J4" t="s">
-        <v>56</v>
       </c>
       <c r="K4" t="s">
         <v>63</v>
@@ -2063,13 +2858,13 @@
         <v>64</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="O4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2099,7 +2894,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -2108,35 +2903,35 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="O5" t="s">
         <v>72</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -2144,7 +2939,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -2181,25 +2976,25 @@
         <v>77</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="O6" t="s">
         <v>72</v>
       </c>
-      <c r="P6" t="s"/>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
       <c r="Q6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R6" t="s"/>
-      <c r="S6" t="n">
-        <v>4</v>
-      </c>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -2207,7 +3002,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
@@ -2223,34 +3018,34 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
         <v>78</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
-        <v>79</v>
-      </c>
-      <c r="J7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L7" t="s">
-        <v>82</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>71</v>
-      </c>
       <c r="O7" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2280,7 +3075,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -2289,45 +3084,35 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>89</v>
-      </c>
-      <c r="O8" t="s">
-        <v>72</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
       <c r="P8" t="s"/>
-      <c r="Q8" t="n">
-        <v>4</v>
-      </c>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
@@ -2343,7 +3128,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2352,45 +3137,39 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>4</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>1</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
@@ -2406,7 +3185,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2415,39 +3194,43 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11">
@@ -2463,48 +3246,54 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
         <v>103</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
-        <v>104</v>
-      </c>
-      <c r="J11" t="s">
-        <v>105</v>
-      </c>
-      <c r="K11" t="s">
-        <v>106</v>
-      </c>
-      <c r="L11" t="s">
-        <v>107</v>
-      </c>
-      <c r="M11" t="n">
-        <v>4</v>
-      </c>
-      <c r="N11" t="s">
-        <v>108</v>
-      </c>
       <c r="O11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
       <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12">
@@ -2541,13 +3330,13 @@
         <v>113</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="O12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2561,7 +3350,7 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13">
@@ -2598,24 +3387,20 @@
         <v>119</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
         <v>120</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
-      <c r="S13" t="n">
-        <v>3</v>
-      </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>3</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
@@ -2662,23 +3447,17 @@
         <v>4</v>
       </c>
       <c r="N14" t="s">
+        <v>120</v>
+      </c>
+      <c r="O14" t="s">
         <v>126</v>
       </c>
-      <c r="O14" t="s">
-        <v>127</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
+      <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
-      <c r="R14" t="n">
-        <v>4</v>
-      </c>
+      <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>4</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
@@ -2701,43 +3480,43 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
         <v>128</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>129</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>130</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>131</v>
       </c>
-      <c r="L15" t="s">
-        <v>132</v>
-      </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="O15" t="s">
-        <v>133</v>
-      </c>
-      <c r="P15" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
-      <c r="S15" t="n">
-        <v>5</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
         <v>5</v>
@@ -2748,7 +3527,7 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16">
@@ -2764,44 +3543,46 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>133</v>
+      </c>
+      <c r="J16" t="s">
         <v>134</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="K16" t="s">
         <v>135</v>
       </c>
-      <c r="J16" t="s">
+      <c r="L16" t="s">
         <v>136</v>
       </c>
-      <c r="K16" t="s">
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
         <v>137</v>
       </c>
-      <c r="L16" t="s">
-        <v>138</v>
-      </c>
-      <c r="M16" t="n">
-        <v>4</v>
-      </c>
-      <c r="N16" t="s">
-        <v>126</v>
-      </c>
       <c r="O16" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
       </c>
-      <c r="Q16" t="s"/>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
       <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2846,13 +3627,13 @@
         <v>143</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
         <v>144</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2903,27 +3684,31 @@
         <v>149</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19">
@@ -2939,44 +3724,44 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
+        <v>150</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
         <v>151</v>
       </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>152</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>153</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>154</v>
       </c>
-      <c r="L19" t="s">
-        <v>155</v>
-      </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2984,7 +3769,7 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20">
@@ -3000,34 +3785,34 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
+        <v>155</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>156</v>
+      </c>
+      <c r="J20" t="s">
         <v>157</v>
       </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="K20" t="s">
         <v>158</v>
       </c>
-      <c r="J20" t="s">
+      <c r="L20" t="s">
         <v>159</v>
       </c>
-      <c r="K20" t="s">
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
         <v>160</v>
       </c>
-      <c r="L20" t="s">
-        <v>161</v>
-      </c>
-      <c r="M20" t="n">
-        <v>5</v>
-      </c>
-      <c r="N20" t="s">
-        <v>162</v>
-      </c>
       <c r="O20" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3041,7 +3826,7 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21">
@@ -3057,34 +3842,34 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
+        <v>161</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>162</v>
+      </c>
+      <c r="J21" t="s">
         <v>163</v>
       </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="K21" t="s">
         <v>164</v>
       </c>
-      <c r="J21" t="s">
+      <c r="L21" t="s">
         <v>165</v>
       </c>
-      <c r="K21" t="s">
-        <v>39</v>
-      </c>
-      <c r="L21" t="s">
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
         <v>166</v>
       </c>
-      <c r="M21" t="n">
-        <v>5</v>
-      </c>
-      <c r="N21" t="s">
-        <v>162</v>
-      </c>
       <c r="O21" t="s">
-        <v>133</v>
+        <v>66</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3098,7 +3883,7 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22">
@@ -3135,7 +3920,7 @@
         <v>171</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N22" t="s">
         <v>172</v>
@@ -3146,20 +3931,20 @@
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
-      <c r="S22" t="s"/>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
-        <v>173</v>
-      </c>
-      <c r="X22" t="s">
-        <v>174</v>
-      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23">
@@ -3175,56 +3960,54 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
+        <v>173</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>174</v>
+      </c>
+      <c r="J23" t="s">
+        <v>175</v>
+      </c>
+      <c r="K23" t="s">
         <v>176</v>
       </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="L23" t="s">
         <v>177</v>
       </c>
-      <c r="J23" t="s">
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
         <v>178</v>
       </c>
-      <c r="K23" t="s">
-        <v>179</v>
-      </c>
-      <c r="L23" t="s">
-        <v>180</v>
-      </c>
-      <c r="M23" t="n">
-        <v>2</v>
-      </c>
-      <c r="N23" t="s">
-        <v>181</v>
-      </c>
       <c r="O23" t="s">
-        <v>72</v>
-      </c>
-      <c r="P23" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
       <c r="Q23" t="s"/>
       <c r="R23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s">
-        <v>182</v>
-      </c>
-      <c r="X23" t="s">
-        <v>183</v>
-      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24">
@@ -3240,7 +4023,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3249,49 +4032,45 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="J24" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="K24" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="L24" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="O24" t="s">
-        <v>127</v>
-      </c>
-      <c r="P24" t="s"/>
-      <c r="Q24" t="n">
-        <v>5</v>
-      </c>
-      <c r="R24" t="s"/>
-      <c r="S24" t="n">
-        <v>5</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s">
-        <v>190</v>
-      </c>
-      <c r="X24" t="s">
-        <v>191</v>
-      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25">
@@ -3307,7 +4086,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3316,47 +4095,45 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="J25" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="K25" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="L25" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="O25" t="s">
-        <v>133</v>
-      </c>
-      <c r="P25" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
       <c r="Q25" t="s"/>
       <c r="R25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s">
-        <v>199</v>
-      </c>
-      <c r="X25" t="s">
-        <v>200</v>
-      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26">
@@ -3372,7 +4149,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3381,43 +4158,45 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="J26" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="K26" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="L26" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
-      </c>
-      <c r="P26" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
       <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
-      <c r="S26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
       <c r="T26" t="s"/>
-      <c r="U26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s">
-        <v>207</v>
-      </c>
-      <c r="X26" t="s">
-        <v>208</v>
-      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27">
@@ -3433,7 +4212,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3442,43 +4221,43 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="J27" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="K27" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="L27" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
-      </c>
-      <c r="P27" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
       <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s">
-        <v>207</v>
-      </c>
-      <c r="X27" t="s">
-        <v>208</v>
-      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28">
@@ -3494,7 +4273,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3503,47 +4282,39 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="J28" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="K28" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="L28" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="O28" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>4</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s">
-        <v>222</v>
-      </c>
-      <c r="X28" t="s">
-        <v>223</v>
-      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29">
@@ -3559,7 +4330,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3568,47 +4339,45 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="J29" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="K29" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="L29" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="O29" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="P29" t="s"/>
-      <c r="Q29" t="s"/>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
       <c r="R29" t="s"/>
       <c r="S29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s">
-        <v>231</v>
-      </c>
-      <c r="X29" t="s">
-        <v>232</v>
-      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30">
@@ -3624,7 +4393,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3633,25 +4402,25 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="J30" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="K30" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="L30" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3662,14 +4431,10 @@
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s">
-        <v>231</v>
-      </c>
-      <c r="X30" t="s">
-        <v>232</v>
-      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31">
@@ -3685,7 +4450,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3694,49 +4459,39 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="J31" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="K31" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="L31" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="P31" t="s"/>
-      <c r="Q31" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q31" t="s"/>
       <c r="R31" t="s"/>
-      <c r="S31" t="n">
-        <v>3</v>
-      </c>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>3</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s">
-        <v>246</v>
-      </c>
-      <c r="X31" t="s">
-        <v>247</v>
-      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32">
@@ -3752,7 +4507,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3761,49 +4516,43 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="J32" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="K32" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="L32" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
-      </c>
-      <c r="N32" t="s"/>
-      <c r="O32" t="s"/>
-      <c r="P32" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>212</v>
+      </c>
+      <c r="O32" t="s">
+        <v>72</v>
+      </c>
+      <c r="P32" t="s"/>
       <c r="Q32" t="n">
         <v>5</v>
       </c>
-      <c r="R32" t="n">
-        <v>5</v>
-      </c>
-      <c r="S32" t="n">
-        <v>4</v>
-      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s">
-        <v>254</v>
-      </c>
-      <c r="X32" t="s">
-        <v>255</v>
-      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33">
@@ -3819,7 +4568,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3828,49 +4577,43 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="J33" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="K33" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="L33" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="P33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q33" t="s"/>
       <c r="R33" t="s"/>
-      <c r="S33" t="n">
-        <v>5</v>
-      </c>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s">
-        <v>263</v>
-      </c>
-      <c r="X33" t="s">
-        <v>264</v>
-      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34">
@@ -3886,7 +4629,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3895,47 +4638,43 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="J34" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="K34" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="L34" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="O34" t="s">
         <v>72</v>
       </c>
       <c r="P34" t="s"/>
-      <c r="Q34" t="s"/>
-      <c r="R34" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="s"/>
       <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s">
-        <v>271</v>
-      </c>
-      <c r="X34" t="s">
-        <v>272</v>
-      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35">
@@ -3951,7 +4690,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3960,47 +4699,39 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="J35" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="K35" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="L35" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="M35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="P35" t="s"/>
-      <c r="Q35" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q35" t="s"/>
       <c r="R35" t="s"/>
       <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>3</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s">
-        <v>280</v>
-      </c>
-      <c r="X35" t="s">
-        <v>281</v>
-      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>282</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36">
@@ -4016,7 +4747,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4025,22 +4756,26 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="J36" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="K36" t="s">
-        <v>286</v>
+        <v>39</v>
       </c>
       <c r="L36" t="s">
-        <v>287</v>
+        <v>250</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
-      <c r="N36" t="s"/>
-      <c r="O36" t="s"/>
+      <c r="N36" t="s">
+        <v>240</v>
+      </c>
+      <c r="O36" t="s">
+        <v>59</v>
+      </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
@@ -4050,14 +4785,10 @@
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s">
-        <v>288</v>
-      </c>
-      <c r="X36" t="s">
-        <v>289</v>
-      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37">
@@ -4073,7 +4804,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>291</v>
+        <v>251</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4082,49 +4813,43 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>292</v>
+        <v>252</v>
       </c>
       <c r="J37" t="s">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="K37" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="L37" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>296</v>
+        <v>256</v>
       </c>
       <c r="O37" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
-      <c r="R37" t="n">
-        <v>3</v>
-      </c>
-      <c r="S37" t="n">
-        <v>4</v>
-      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>3</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>297</v>
+        <v>257</v>
       </c>
       <c r="X37" t="s">
-        <v>298</v>
+        <v>258</v>
       </c>
       <c r="Y37" t="s">
-        <v>299</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38">
@@ -4140,7 +4865,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4149,43 +4874,49 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="J38" t="s">
-        <v>302</v>
+        <v>262</v>
       </c>
       <c r="K38" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="L38" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>305</v>
+        <v>256</v>
       </c>
       <c r="O38" t="s">
         <v>72</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
-      <c r="R38" t="s"/>
-      <c r="S38" t="s"/>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
       <c r="T38" t="s"/>
-      <c r="U38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>306</v>
+        <v>265</v>
       </c>
       <c r="X38" t="s">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="Y38" t="s">
-        <v>308</v>
+        <v>267</v>
       </c>
     </row>
     <row r="39">
@@ -4201,7 +4932,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>309</v>
+        <v>268</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4210,53 +4941,43 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>310</v>
+        <v>269</v>
       </c>
       <c r="J39" t="s">
-        <v>311</v>
+        <v>262</v>
       </c>
       <c r="K39" t="s">
-        <v>312</v>
+        <v>270</v>
       </c>
       <c r="L39" t="s">
-        <v>313</v>
+        <v>271</v>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>314</v>
+        <v>256</v>
       </c>
       <c r="O39" t="s">
-        <v>133</v>
-      </c>
-      <c r="P39" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>5</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5</v>
-      </c>
-      <c r="S39" t="n">
-        <v>5</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>4</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>315</v>
+        <v>265</v>
       </c>
       <c r="X39" t="s">
-        <v>316</v>
+        <v>266</v>
       </c>
       <c r="Y39" t="s">
-        <v>317</v>
+        <v>272</v>
       </c>
     </row>
     <row r="40">
@@ -4272,7 +4993,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>318</v>
+        <v>273</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4281,43 +5002,47 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>319</v>
+        <v>274</v>
       </c>
       <c r="J40" t="s">
-        <v>320</v>
+        <v>275</v>
       </c>
       <c r="K40" t="s">
-        <v>321</v>
+        <v>276</v>
       </c>
       <c r="L40" t="s">
-        <v>322</v>
+        <v>277</v>
       </c>
       <c r="M40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>323</v>
+        <v>278</v>
       </c>
       <c r="O40" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
-      <c r="R40" t="s"/>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
       <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>324</v>
+        <v>279</v>
       </c>
       <c r="X40" t="s">
-        <v>325</v>
+        <v>280</v>
       </c>
       <c r="Y40" t="s">
-        <v>326</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41">
@@ -4333,7 +5058,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>327</v>
+        <v>282</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4342,49 +5067,49 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>328</v>
+        <v>283</v>
       </c>
       <c r="J41" t="s">
-        <v>329</v>
+        <v>284</v>
       </c>
       <c r="K41" t="s">
-        <v>330</v>
+        <v>285</v>
       </c>
       <c r="L41" t="s">
-        <v>331</v>
+        <v>286</v>
       </c>
       <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="s"/>
-      <c r="O41" t="s"/>
-      <c r="P41" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>278</v>
+      </c>
+      <c r="O41" t="s">
+        <v>126</v>
+      </c>
+      <c r="P41" t="s"/>
       <c r="Q41" t="n">
-        <v>1</v>
-      </c>
-      <c r="R41" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R41" t="s"/>
       <c r="S41" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>332</v>
+        <v>287</v>
       </c>
       <c r="X41" t="s">
-        <v>333</v>
+        <v>288</v>
       </c>
       <c r="Y41" t="s">
-        <v>334</v>
+        <v>289</v>
       </c>
     </row>
     <row r="42">
@@ -4400,7 +5125,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>335</v>
+        <v>290</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4409,53 +5134,47 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>336</v>
+        <v>291</v>
       </c>
       <c r="J42" t="s">
-        <v>337</v>
+        <v>292</v>
       </c>
       <c r="K42" t="s">
-        <v>338</v>
+        <v>293</v>
       </c>
       <c r="L42" t="s">
-        <v>339</v>
+        <v>294</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>340</v>
+        <v>295</v>
       </c>
       <c r="O42" t="s">
-        <v>133</v>
-      </c>
-      <c r="P42" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>1</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
       <c r="R42" t="n">
-        <v>4</v>
-      </c>
-      <c r="S42" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>332</v>
+        <v>296</v>
       </c>
       <c r="X42" t="s">
-        <v>333</v>
+        <v>297</v>
       </c>
       <c r="Y42" t="s">
-        <v>341</v>
+        <v>298</v>
       </c>
     </row>
     <row r="43">
@@ -4471,7 +5190,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>342</v>
+        <v>299</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4480,49 +5199,43 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>343</v>
+        <v>300</v>
       </c>
       <c r="J43" t="s">
-        <v>344</v>
+        <v>301</v>
       </c>
       <c r="K43" t="s">
-        <v>345</v>
+        <v>302</v>
       </c>
       <c r="L43" t="s">
-        <v>346</v>
+        <v>303</v>
       </c>
       <c r="M43" t="n">
-        <v>3</v>
-      </c>
-      <c r="N43" t="s"/>
-      <c r="O43" t="s"/>
-      <c r="P43" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>3</v>
-      </c>
-      <c r="R43" t="n">
-        <v>4</v>
-      </c>
-      <c r="S43" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>304</v>
+      </c>
+      <c r="O43" t="s">
+        <v>72</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
-      <c r="U43" t="n">
-        <v>3</v>
-      </c>
+      <c r="U43" t="s"/>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>347</v>
+        <v>305</v>
       </c>
       <c r="X43" t="s">
-        <v>348</v>
+        <v>306</v>
       </c>
       <c r="Y43" t="s">
-        <v>349</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44">
@@ -4538,7 +5251,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>350</v>
+        <v>308</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4547,53 +5260,45 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>351</v>
+        <v>309</v>
       </c>
       <c r="J44" t="s">
-        <v>352</v>
+        <v>310</v>
       </c>
       <c r="K44" t="s">
-        <v>353</v>
+        <v>311</v>
       </c>
       <c r="L44" t="s">
-        <v>354</v>
+        <v>312</v>
       </c>
       <c r="M44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>355</v>
+        <v>313</v>
       </c>
       <c r="O44" t="s">
         <v>72</v>
       </c>
-      <c r="P44" t="n">
+      <c r="P44" t="s"/>
+      <c r="Q44" t="n">
         <v>3</v>
       </c>
-      <c r="Q44" t="n">
-        <v>4</v>
-      </c>
       <c r="R44" t="n">
-        <v>3</v>
-      </c>
-      <c r="S44" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s">
-        <v>356</v>
-      </c>
-      <c r="X44" t="s">
-        <v>357</v>
-      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>358</v>
+        <v>314</v>
       </c>
     </row>
     <row r="45">
@@ -4609,7 +5314,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>359</v>
+        <v>315</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4618,53 +5323,43 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>360</v>
+        <v>316</v>
       </c>
       <c r="J45" t="s">
-        <v>361</v>
+        <v>317</v>
       </c>
       <c r="K45" t="s">
-        <v>362</v>
+        <v>318</v>
       </c>
       <c r="L45" t="s">
-        <v>363</v>
+        <v>319</v>
       </c>
       <c r="M45" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>364</v>
+        <v>295</v>
       </c>
       <c r="O45" t="s">
         <v>72</v>
       </c>
-      <c r="P45" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>1</v>
-      </c>
-      <c r="R45" t="n">
-        <v>1</v>
-      </c>
-      <c r="S45" t="n">
-        <v>1</v>
-      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
-      <c r="U45" t="n">
-        <v>1</v>
-      </c>
+      <c r="U45" t="s"/>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="X45" t="s">
-        <v>366</v>
+        <v>321</v>
       </c>
       <c r="Y45" t="s">
-        <v>367</v>
+        <v>322</v>
       </c>
     </row>
     <row r="46">
@@ -4680,7 +5375,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>368</v>
+        <v>323</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4689,51 +5384,43 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>369</v>
+        <v>324</v>
       </c>
       <c r="J46" t="s">
-        <v>370</v>
+        <v>325</v>
       </c>
       <c r="K46" t="s">
-        <v>371</v>
+        <v>326</v>
       </c>
       <c r="L46" t="s">
-        <v>372</v>
+        <v>327</v>
       </c>
       <c r="M46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>373</v>
+        <v>328</v>
       </c>
       <c r="O46" t="s">
-        <v>133</v>
-      </c>
-      <c r="P46" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>4</v>
-      </c>
-      <c r="R46" t="n">
-        <v>3</v>
-      </c>
-      <c r="S46" t="n">
-        <v>4</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
       <c r="U46" t="s"/>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>374</v>
+        <v>320</v>
       </c>
       <c r="X46" t="s">
-        <v>375</v>
+        <v>321</v>
       </c>
       <c r="Y46" t="s">
-        <v>376</v>
+        <v>329</v>
       </c>
     </row>
     <row r="47">
@@ -4749,7 +5436,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>377</v>
+        <v>330</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4758,49 +5445,47 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>378</v>
+        <v>331</v>
       </c>
       <c r="J47" t="s">
-        <v>379</v>
+        <v>332</v>
       </c>
       <c r="K47" t="s">
-        <v>380</v>
+        <v>333</v>
       </c>
       <c r="L47" t="s">
-        <v>381</v>
+        <v>334</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
-      <c r="N47" t="s"/>
-      <c r="O47" t="s"/>
-      <c r="P47" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>4</v>
-      </c>
-      <c r="R47" t="n">
-        <v>5</v>
-      </c>
+      <c r="N47" t="s">
+        <v>328</v>
+      </c>
+      <c r="O47" t="s">
+        <v>66</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
       <c r="S47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>382</v>
+        <v>335</v>
       </c>
       <c r="X47" t="s">
-        <v>383</v>
+        <v>336</v>
       </c>
       <c r="Y47" t="s">
-        <v>384</v>
+        <v>337</v>
       </c>
     </row>
     <row r="48">
@@ -4816,7 +5501,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>385</v>
+        <v>338</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -4825,53 +5510,43 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>386</v>
+        <v>339</v>
       </c>
       <c r="J48" t="s">
-        <v>387</v>
+        <v>340</v>
       </c>
       <c r="K48" t="s">
-        <v>388</v>
+        <v>341</v>
       </c>
       <c r="L48" t="s">
-        <v>389</v>
+        <v>342</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>390</v>
+        <v>328</v>
       </c>
       <c r="O48" t="s">
-        <v>127</v>
-      </c>
-      <c r="P48" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>4</v>
-      </c>
-      <c r="R48" t="n">
-        <v>5</v>
-      </c>
-      <c r="S48" t="n">
-        <v>5</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
-      <c r="U48" t="n">
-        <v>5</v>
-      </c>
+      <c r="U48" t="s"/>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>391</v>
+        <v>343</v>
       </c>
       <c r="X48" t="s">
-        <v>392</v>
+        <v>344</v>
       </c>
       <c r="Y48" t="s">
-        <v>393</v>
+        <v>345</v>
       </c>
     </row>
     <row r="49">
@@ -4887,7 +5562,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>394</v>
+        <v>346</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -4896,53 +5571,43 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>395</v>
+        <v>347</v>
       </c>
       <c r="J49" t="s">
-        <v>396</v>
+        <v>348</v>
       </c>
       <c r="K49" t="s">
-        <v>397</v>
+        <v>349</v>
       </c>
       <c r="L49" t="s">
-        <v>398</v>
+        <v>350</v>
       </c>
       <c r="M49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>399</v>
+        <v>351</v>
       </c>
       <c r="O49" t="s">
         <v>72</v>
       </c>
-      <c r="P49" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>5</v>
-      </c>
-      <c r="R49" t="n">
-        <v>5</v>
-      </c>
-      <c r="S49" t="n">
-        <v>5</v>
-      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
-      <c r="U49" t="n">
-        <v>5</v>
-      </c>
+      <c r="U49" t="s"/>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>400</v>
+        <v>352</v>
       </c>
       <c r="X49" t="s">
-        <v>401</v>
+        <v>353</v>
       </c>
       <c r="Y49" t="s">
-        <v>402</v>
+        <v>354</v>
       </c>
     </row>
     <row r="50">
@@ -4958,7 +5623,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>403</v>
+        <v>355</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -4967,35 +5632,29 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>404</v>
+        <v>356</v>
       </c>
       <c r="J50" t="s">
-        <v>405</v>
+        <v>357</v>
       </c>
       <c r="K50" t="s">
-        <v>406</v>
+        <v>358</v>
       </c>
       <c r="L50" t="s">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="M50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>408</v>
+        <v>351</v>
       </c>
       <c r="O50" t="s">
-        <v>72</v>
-      </c>
-      <c r="P50" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>5</v>
-      </c>
-      <c r="R50" t="n">
-        <v>5</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
       <c r="S50" t="n">
         <v>5</v>
       </c>
@@ -5007,13 +5666,13 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="X50" t="s">
-        <v>401</v>
+        <v>361</v>
       </c>
       <c r="Y50" t="s">
-        <v>409</v>
+        <v>362</v>
       </c>
     </row>
     <row r="51">
@@ -5029,7 +5688,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>410</v>
+        <v>363</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5038,49 +5697,43 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>411</v>
+        <v>364</v>
       </c>
       <c r="J51" t="s">
-        <v>412</v>
+        <v>365</v>
       </c>
       <c r="K51" t="s">
-        <v>413</v>
+        <v>366</v>
       </c>
       <c r="L51" t="s">
-        <v>414</v>
+        <v>367</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>415</v>
+        <v>351</v>
       </c>
       <c r="O51" t="s">
         <v>72</v>
       </c>
-      <c r="P51" t="n">
-        <v>5</v>
-      </c>
+      <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
       <c r="R51" t="s"/>
-      <c r="S51" t="n">
-        <v>5</v>
-      </c>
+      <c r="S51" t="s"/>
       <c r="T51" t="s"/>
-      <c r="U51" t="n">
-        <v>5</v>
-      </c>
+      <c r="U51" t="s"/>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="X51" t="s">
-        <v>401</v>
+        <v>361</v>
       </c>
       <c r="Y51" t="s">
-        <v>416</v>
+        <v>368</v>
       </c>
     </row>
     <row r="52">
@@ -5096,7 +5749,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>417</v>
+        <v>369</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5105,53 +5758,49 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>418</v>
+        <v>370</v>
       </c>
       <c r="J52" t="s">
-        <v>419</v>
+        <v>371</v>
       </c>
       <c r="K52" t="s">
-        <v>420</v>
+        <v>372</v>
       </c>
       <c r="L52" t="s">
-        <v>421</v>
+        <v>373</v>
       </c>
       <c r="M52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>422</v>
+        <v>374</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
-      </c>
-      <c r="P52" t="n">
-        <v>5</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P52" t="s"/>
       <c r="Q52" t="n">
-        <v>4</v>
-      </c>
-      <c r="R52" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R52" t="s"/>
       <c r="S52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="X52" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="Y52" t="s">
-        <v>423</v>
+        <v>377</v>
       </c>
     </row>
     <row r="53">
@@ -5167,7 +5816,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>424</v>
+        <v>378</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5176,53 +5825,49 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>425</v>
+        <v>379</v>
       </c>
       <c r="J53" t="s">
-        <v>426</v>
+        <v>380</v>
       </c>
       <c r="K53" t="s">
-        <v>427</v>
+        <v>381</v>
       </c>
       <c r="L53" t="s">
-        <v>428</v>
+        <v>382</v>
       </c>
       <c r="M53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>429</v>
+        <v>383</v>
       </c>
       <c r="O53" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="P53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q53" t="n">
-        <v>4</v>
-      </c>
-      <c r="R53" t="n">
-        <v>5</v>
-      </c>
-      <c r="S53" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="X53" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="Y53" t="s">
-        <v>430</v>
+        <v>386</v>
       </c>
     </row>
     <row r="54">
@@ -5238,7 +5883,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>431</v>
+        <v>387</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5247,53 +5892,49 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>432</v>
+        <v>388</v>
       </c>
       <c r="J54" t="s">
-        <v>433</v>
+        <v>389</v>
       </c>
       <c r="K54" t="s">
-        <v>434</v>
+        <v>390</v>
       </c>
       <c r="L54" t="s">
-        <v>435</v>
+        <v>391</v>
       </c>
       <c r="M54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>436</v>
+        <v>392</v>
       </c>
       <c r="O54" t="s">
         <v>72</v>
       </c>
       <c r="P54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q54" t="n">
         <v>4</v>
       </c>
-      <c r="R54" t="n">
-        <v>4</v>
-      </c>
-      <c r="S54" t="n">
-        <v>5</v>
-      </c>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="X54" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="Y54" t="s">
-        <v>437</v>
+        <v>395</v>
       </c>
     </row>
     <row r="55">
@@ -5309,7 +5950,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>438</v>
+        <v>396</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5318,53 +5959,49 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>439</v>
+        <v>397</v>
       </c>
       <c r="J55" t="s">
-        <v>440</v>
+        <v>398</v>
       </c>
       <c r="K55" t="s">
-        <v>441</v>
+        <v>399</v>
       </c>
       <c r="L55" t="s">
-        <v>442</v>
+        <v>400</v>
       </c>
       <c r="M55" t="n">
-        <v>5</v>
-      </c>
-      <c r="N55" t="s">
-        <v>443</v>
-      </c>
-      <c r="O55" t="s">
-        <v>72</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
       <c r="P55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R55" t="n">
         <v>5</v>
       </c>
       <c r="S55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="X55" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y55" t="s">
         <v>401</v>
-      </c>
-      <c r="Y55" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="56">
@@ -5380,7 +6017,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>445</v>
+        <v>402</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5389,53 +6026,49 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>446</v>
+        <v>403</v>
       </c>
       <c r="J56" t="s">
-        <v>447</v>
+        <v>404</v>
       </c>
       <c r="K56" t="s">
-        <v>448</v>
+        <v>405</v>
       </c>
       <c r="L56" t="s">
-        <v>449</v>
+        <v>406</v>
       </c>
       <c r="M56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>450</v>
+        <v>407</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="P56" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>4</v>
-      </c>
-      <c r="R56" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
       <c r="S56" t="n">
         <v>5</v>
       </c>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="X56" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="Y56" t="s">
-        <v>451</v>
+        <v>410</v>
       </c>
     </row>
     <row r="57">
@@ -5451,7 +6084,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>452</v>
+        <v>411</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5460,53 +6093,2732 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>453</v>
+        <v>412</v>
       </c>
       <c r="J57" t="s">
-        <v>454</v>
+        <v>413</v>
       </c>
       <c r="K57" t="s">
-        <v>455</v>
+        <v>414</v>
       </c>
       <c r="L57" t="s">
-        <v>456</v>
+        <v>415</v>
       </c>
       <c r="M57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>457</v>
+        <v>407</v>
       </c>
       <c r="O57" t="s">
-        <v>72</v>
-      </c>
-      <c r="P57" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>5</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
       <c r="R57" t="n">
         <v>4</v>
       </c>
-      <c r="S57" t="n">
-        <v>5</v>
-      </c>
+      <c r="S57" t="s"/>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="X57" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="Y57" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>419</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>420</v>
+      </c>
+      <c r="J58" t="s">
+        <v>421</v>
+      </c>
+      <c r="K58" t="s">
+        <v>422</v>
+      </c>
+      <c r="L58" t="s">
+        <v>423</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>424</v>
+      </c>
+      <c r="X58" t="s">
+        <v>425</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>427</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>428</v>
+      </c>
+      <c r="J59" t="s">
+        <v>429</v>
+      </c>
+      <c r="K59" t="s">
+        <v>430</v>
+      </c>
+      <c r="L59" t="s">
+        <v>431</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>432</v>
+      </c>
+      <c r="O59" t="s">
+        <v>66</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>424</v>
+      </c>
+      <c r="X59" t="s">
+        <v>425</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>434</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>435</v>
+      </c>
+      <c r="J60" t="s">
+        <v>436</v>
+      </c>
+      <c r="K60" t="s">
+        <v>437</v>
+      </c>
+      <c r="L60" t="s">
+        <v>438</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>432</v>
+      </c>
+      <c r="O60" t="s">
+        <v>72</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>3</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>424</v>
+      </c>
+      <c r="X60" t="s">
+        <v>425</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>440</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>441</v>
+      </c>
+      <c r="J61" t="s">
+        <v>442</v>
+      </c>
+      <c r="K61" t="s">
+        <v>443</v>
+      </c>
+      <c r="L61" t="s">
+        <v>444</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>445</v>
+      </c>
+      <c r="X61" t="s">
+        <v>446</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>448</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>449</v>
+      </c>
+      <c r="J62" t="s">
+        <v>450</v>
+      </c>
+      <c r="K62" t="s">
+        <v>451</v>
+      </c>
+      <c r="L62" t="s">
+        <v>452</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>453</v>
+      </c>
+      <c r="O62" t="s">
+        <v>84</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>454</v>
+      </c>
+      <c r="X62" t="s">
+        <v>455</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>457</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
         <v>458</v>
+      </c>
+      <c r="J63" t="s">
+        <v>459</v>
+      </c>
+      <c r="K63" t="s">
+        <v>460</v>
+      </c>
+      <c r="L63" t="s">
+        <v>461</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>462</v>
+      </c>
+      <c r="O63" t="s">
+        <v>66</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>463</v>
+      </c>
+      <c r="X63" t="s">
+        <v>464</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>466</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>467</v>
+      </c>
+      <c r="J64" t="s">
+        <v>468</v>
+      </c>
+      <c r="K64" t="s">
+        <v>469</v>
+      </c>
+      <c r="L64" t="s">
+        <v>470</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>471</v>
+      </c>
+      <c r="O64" t="s">
+        <v>72</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>463</v>
+      </c>
+      <c r="X64" t="s">
+        <v>464</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>473</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>474</v>
+      </c>
+      <c r="J65" t="s">
+        <v>475</v>
+      </c>
+      <c r="K65" t="s">
+        <v>476</v>
+      </c>
+      <c r="L65" t="s">
+        <v>477</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>478</v>
+      </c>
+      <c r="O65" t="s">
+        <v>66</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>479</v>
+      </c>
+      <c r="X65" t="s">
+        <v>480</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>482</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>483</v>
+      </c>
+      <c r="J66" t="s">
+        <v>484</v>
+      </c>
+      <c r="K66" t="s">
+        <v>485</v>
+      </c>
+      <c r="L66" t="s">
+        <v>486</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>487</v>
+      </c>
+      <c r="O66" t="s">
+        <v>59</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>488</v>
+      </c>
+      <c r="X66" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>491</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>492</v>
+      </c>
+      <c r="J67" t="s">
+        <v>493</v>
+      </c>
+      <c r="K67" t="s">
+        <v>494</v>
+      </c>
+      <c r="L67" t="s">
+        <v>495</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>462</v>
+      </c>
+      <c r="O67" t="s">
+        <v>66</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>496</v>
+      </c>
+      <c r="X67" t="s">
+        <v>497</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>499</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>500</v>
+      </c>
+      <c r="J68" t="s">
+        <v>501</v>
+      </c>
+      <c r="K68" t="s">
+        <v>502</v>
+      </c>
+      <c r="L68" t="s">
+        <v>503</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>504</v>
+      </c>
+      <c r="O68" t="s">
+        <v>72</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>505</v>
+      </c>
+      <c r="X68" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>508</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>509</v>
+      </c>
+      <c r="J69" t="s">
+        <v>510</v>
+      </c>
+      <c r="K69" t="s">
+        <v>511</v>
+      </c>
+      <c r="L69" t="s">
+        <v>512</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>453</v>
+      </c>
+      <c r="O69" t="s">
+        <v>126</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>513</v>
+      </c>
+      <c r="X69" t="s">
+        <v>514</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>516</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>517</v>
+      </c>
+      <c r="J70" t="s">
+        <v>518</v>
+      </c>
+      <c r="K70" t="s">
+        <v>519</v>
+      </c>
+      <c r="L70" t="s">
+        <v>520</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s"/>
+      <c r="O70" t="s"/>
+      <c r="P70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R70" t="n">
+        <v>2</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>521</v>
+      </c>
+      <c r="X70" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>524</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>525</v>
+      </c>
+      <c r="J71" t="s">
+        <v>526</v>
+      </c>
+      <c r="K71" t="s">
+        <v>527</v>
+      </c>
+      <c r="L71" t="s">
+        <v>528</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
+        <v>529</v>
+      </c>
+      <c r="O71" t="s">
+        <v>59</v>
+      </c>
+      <c r="P71" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>1</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>1</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>521</v>
+      </c>
+      <c r="X71" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>531</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>532</v>
+      </c>
+      <c r="J72" t="s">
+        <v>533</v>
+      </c>
+      <c r="K72" t="s">
+        <v>534</v>
+      </c>
+      <c r="L72" t="s">
+        <v>535</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>3</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>536</v>
+      </c>
+      <c r="X72" t="s">
+        <v>537</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>539</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>540</v>
+      </c>
+      <c r="J73" t="s">
+        <v>541</v>
+      </c>
+      <c r="K73" t="s">
+        <v>542</v>
+      </c>
+      <c r="L73" t="s">
+        <v>543</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>544</v>
+      </c>
+      <c r="X73" t="s">
+        <v>545</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>547</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>548</v>
+      </c>
+      <c r="J74" t="s">
+        <v>549</v>
+      </c>
+      <c r="K74" t="s">
+        <v>550</v>
+      </c>
+      <c r="L74" t="s">
+        <v>551</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>552</v>
+      </c>
+      <c r="O74" t="s">
+        <v>66</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>553</v>
+      </c>
+      <c r="X74" t="s">
+        <v>554</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>556</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>557</v>
+      </c>
+      <c r="J75" t="s">
+        <v>558</v>
+      </c>
+      <c r="K75" t="s">
+        <v>559</v>
+      </c>
+      <c r="L75" t="s">
+        <v>560</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>561</v>
+      </c>
+      <c r="O75" t="s">
+        <v>66</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>562</v>
+      </c>
+      <c r="X75" t="s">
+        <v>563</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>565</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>566</v>
+      </c>
+      <c r="J76" t="s">
+        <v>567</v>
+      </c>
+      <c r="K76" t="s">
+        <v>568</v>
+      </c>
+      <c r="L76" t="s">
+        <v>569</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="s">
+        <v>570</v>
+      </c>
+      <c r="O76" t="s">
+        <v>66</v>
+      </c>
+      <c r="P76" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>1</v>
+      </c>
+      <c r="R76" t="n">
+        <v>1</v>
+      </c>
+      <c r="S76" t="n">
+        <v>1</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>1</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>571</v>
+      </c>
+      <c r="X76" t="s">
+        <v>572</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>574</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>575</v>
+      </c>
+      <c r="J77" t="s">
+        <v>576</v>
+      </c>
+      <c r="K77" t="s">
+        <v>577</v>
+      </c>
+      <c r="L77" t="s">
+        <v>578</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>579</v>
+      </c>
+      <c r="O77" t="s">
+        <v>59</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="s"/>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>580</v>
+      </c>
+      <c r="X77" t="s">
+        <v>581</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>583</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>584</v>
+      </c>
+      <c r="J78" t="s">
+        <v>585</v>
+      </c>
+      <c r="K78" t="s">
+        <v>586</v>
+      </c>
+      <c r="L78" t="s">
+        <v>587</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>529</v>
+      </c>
+      <c r="O78" t="s">
+        <v>84</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>588</v>
+      </c>
+      <c r="X78" t="s">
+        <v>589</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>591</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>592</v>
+      </c>
+      <c r="J79" t="s">
+        <v>593</v>
+      </c>
+      <c r="K79" t="s">
+        <v>594</v>
+      </c>
+      <c r="L79" t="s">
+        <v>595</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3</v>
+      </c>
+      <c r="N79" t="s"/>
+      <c r="O79" t="s"/>
+      <c r="P79" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>3</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>2</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>596</v>
+      </c>
+      <c r="X79" t="s">
+        <v>597</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>599</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>600</v>
+      </c>
+      <c r="J80" t="s">
+        <v>601</v>
+      </c>
+      <c r="K80" t="s">
+        <v>602</v>
+      </c>
+      <c r="L80" t="s">
+        <v>603</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s"/>
+      <c r="O80" t="s"/>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>3</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>604</v>
+      </c>
+      <c r="X80" t="s">
+        <v>605</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>607</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>608</v>
+      </c>
+      <c r="J81" t="s">
+        <v>609</v>
+      </c>
+      <c r="K81" t="s">
+        <v>610</v>
+      </c>
+      <c r="L81" t="s">
+        <v>611</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>552</v>
+      </c>
+      <c r="O81" t="s">
+        <v>126</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>612</v>
+      </c>
+      <c r="X81" t="s">
+        <v>613</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>615</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>616</v>
+      </c>
+      <c r="J82" t="s">
+        <v>617</v>
+      </c>
+      <c r="K82" t="s">
+        <v>618</v>
+      </c>
+      <c r="L82" t="s">
+        <v>619</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>620</v>
+      </c>
+      <c r="O82" t="s">
+        <v>66</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>621</v>
+      </c>
+      <c r="X82" t="s">
+        <v>622</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>624</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>625</v>
+      </c>
+      <c r="J83" t="s">
+        <v>626</v>
+      </c>
+      <c r="K83" t="s">
+        <v>627</v>
+      </c>
+      <c r="L83" t="s">
+        <v>628</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>629</v>
+      </c>
+      <c r="O83" t="s">
+        <v>66</v>
+      </c>
+      <c r="P83" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>3</v>
+      </c>
+      <c r="R83" t="n">
+        <v>3</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>3</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>621</v>
+      </c>
+      <c r="X83" t="s">
+        <v>622</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>631</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>632</v>
+      </c>
+      <c r="J84" t="s">
+        <v>633</v>
+      </c>
+      <c r="K84" t="s">
+        <v>634</v>
+      </c>
+      <c r="L84" t="s">
+        <v>635</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>636</v>
+      </c>
+      <c r="O84" t="s">
+        <v>126</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>621</v>
+      </c>
+      <c r="X84" t="s">
+        <v>622</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>638</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>639</v>
+      </c>
+      <c r="J85" t="s">
+        <v>640</v>
+      </c>
+      <c r="K85" t="s">
+        <v>641</v>
+      </c>
+      <c r="L85" t="s">
+        <v>642</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>643</v>
+      </c>
+      <c r="O85" t="s">
+        <v>66</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>621</v>
+      </c>
+      <c r="X85" t="s">
+        <v>622</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>645</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>646</v>
+      </c>
+      <c r="J86" t="s">
+        <v>647</v>
+      </c>
+      <c r="K86" t="s">
+        <v>648</v>
+      </c>
+      <c r="L86" t="s">
+        <v>649</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>650</v>
+      </c>
+      <c r="O86" t="s">
+        <v>66</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>621</v>
+      </c>
+      <c r="X86" t="s">
+        <v>622</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>652</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>653</v>
+      </c>
+      <c r="J87" t="s">
+        <v>654</v>
+      </c>
+      <c r="K87" t="s">
+        <v>655</v>
+      </c>
+      <c r="L87" t="s">
+        <v>656</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>657</v>
+      </c>
+      <c r="O87" t="s">
+        <v>72</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>621</v>
+      </c>
+      <c r="X87" t="s">
+        <v>622</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>659</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>660</v>
+      </c>
+      <c r="J88" t="s">
+        <v>661</v>
+      </c>
+      <c r="K88" t="s">
+        <v>662</v>
+      </c>
+      <c r="L88" t="s">
+        <v>663</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>650</v>
+      </c>
+      <c r="O88" t="s">
+        <v>72</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>621</v>
+      </c>
+      <c r="X88" t="s">
+        <v>622</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>665</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>666</v>
+      </c>
+      <c r="J89" t="s">
+        <v>667</v>
+      </c>
+      <c r="K89" t="s">
+        <v>668</v>
+      </c>
+      <c r="L89" t="s">
+        <v>669</v>
+      </c>
+      <c r="M89" t="n">
+        <v>2</v>
+      </c>
+      <c r="N89" t="s">
+        <v>670</v>
+      </c>
+      <c r="O89" t="s">
+        <v>66</v>
+      </c>
+      <c r="P89" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>1</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>621</v>
+      </c>
+      <c r="X89" t="s">
+        <v>622</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>672</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>673</v>
+      </c>
+      <c r="J90" t="s">
+        <v>674</v>
+      </c>
+      <c r="K90" t="s">
+        <v>675</v>
+      </c>
+      <c r="L90" t="s">
+        <v>676</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>677</v>
+      </c>
+      <c r="O90" t="s">
+        <v>84</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>4</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>621</v>
+      </c>
+      <c r="X90" t="s">
+        <v>622</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>679</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>680</v>
+      </c>
+      <c r="J91" t="s">
+        <v>681</v>
+      </c>
+      <c r="K91" t="s">
+        <v>682</v>
+      </c>
+      <c r="L91" t="s">
+        <v>683</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>684</v>
+      </c>
+      <c r="O91" t="s">
+        <v>66</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>621</v>
+      </c>
+      <c r="X91" t="s">
+        <v>622</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>686</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>687</v>
+      </c>
+      <c r="J92" t="s">
+        <v>688</v>
+      </c>
+      <c r="K92" t="s">
+        <v>689</v>
+      </c>
+      <c r="L92" t="s">
+        <v>690</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>691</v>
+      </c>
+      <c r="O92" t="s">
+        <v>66</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>4</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>621</v>
+      </c>
+      <c r="X92" t="s">
+        <v>622</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>693</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>694</v>
+      </c>
+      <c r="J93" t="s">
+        <v>695</v>
+      </c>
+      <c r="K93" t="s">
+        <v>696</v>
+      </c>
+      <c r="L93" t="s">
+        <v>697</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>698</v>
+      </c>
+      <c r="O93" t="s">
+        <v>126</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>4</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>621</v>
+      </c>
+      <c r="X93" t="s">
+        <v>622</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>700</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>701</v>
+      </c>
+      <c r="J94" t="s">
+        <v>702</v>
+      </c>
+      <c r="K94" t="s">
+        <v>703</v>
+      </c>
+      <c r="L94" t="s">
+        <v>704</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>705</v>
+      </c>
+      <c r="O94" t="s">
+        <v>66</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>3</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>621</v>
+      </c>
+      <c r="X94" t="s">
+        <v>622</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>707</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>708</v>
+      </c>
+      <c r="J95" t="s">
+        <v>709</v>
+      </c>
+      <c r="K95" t="s">
+        <v>710</v>
+      </c>
+      <c r="L95" t="s">
+        <v>711</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>705</v>
+      </c>
+      <c r="O95" t="s">
+        <v>72</v>
+      </c>
+      <c r="P95" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+      <c r="R95" t="n">
+        <v>4</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>4</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>621</v>
+      </c>
+      <c r="X95" t="s">
+        <v>622</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>54195</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>713</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>714</v>
+      </c>
+      <c r="J96" t="s">
+        <v>715</v>
+      </c>
+      <c r="K96" t="s">
+        <v>716</v>
+      </c>
+      <c r="L96" t="s">
+        <v>717</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>718</v>
+      </c>
+      <c r="O96" t="s">
+        <v>66</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>621</v>
+      </c>
+      <c r="X96" t="s">
+        <v>622</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>719</v>
       </c>
     </row>
   </sheetData>
